--- a/Café.xlsx
+++ b/Café.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C89F27-6690-3243-A420-E6657AD00E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D94647-BB9D-844D-826C-CB2C44B36368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Mousse</t>
+  </si>
+  <si>
+    <t>Bruit et vibration</t>
   </si>
 </sst>
 </file>
@@ -453,20 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -474,13 +477,16 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -488,19 +494,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <v>329</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -508,19 +517,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
         <v>600</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -528,19 +540,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
         <v>549</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -548,19 +563,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>549</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -568,19 +586,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>374</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -588,19 +609,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <v>1310</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -608,19 +632,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <v>399</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -628,19 +655,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
         <v>499</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -648,15 +678,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>349</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1.8</v>
       </c>
     </row>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D94647-BB9D-844D-826C-CB2C44B36368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D7703-4272-2C4D-A668-423F31A4FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Bruit et vibration</t>
+  </si>
+  <si>
+    <t>Valeur original</t>
+  </si>
+  <si>
+    <t>jugement d'indifférence pour la capacité</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,10 +486,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -503,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="1">
         <v>329</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -526,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="1">
         <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -549,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" s="1">
         <v>549</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -572,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G5" s="1">
         <v>549</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="1">
         <v>374</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -618,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="1">
         <v>1310</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,10 +647,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G8" s="1">
         <v>399</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G9" s="1">
         <v>499</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,10 +693,117 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="1">
         <v>349</v>
       </c>
-      <c r="G10" s="1">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>AVERAGE(G2:G10)</f>
+        <v>550.88888888888891</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>550</v>
+      </c>
+      <c r="D29">
         <v>1.8</v>
+      </c>
+      <c r="E29">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>550</v>
+      </c>
+      <c r="E31">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>550</v>
+      </c>
+      <c r="E32">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>550</v>
+      </c>
+      <c r="E33">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>550</v>
+      </c>
+      <c r="E34">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D7703-4272-2C4D-A668-423F31A4FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56C333-3D19-C141-99F3-3B01B6585310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>jugement d'indifférence pour la capacité</t>
+  </si>
+  <si>
+    <t>jugement d'indifférence pour température</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,9 +762,6 @@
       <c r="C29">
         <v>550</v>
       </c>
-      <c r="D29">
-        <v>1.8</v>
-      </c>
       <c r="E29">
         <v>650</v>
       </c>
@@ -786,11 +786,14 @@
       <c r="C32">
         <v>550</v>
       </c>
+      <c r="D32">
+        <v>1.8</v>
+      </c>
       <c r="E32">
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>550</v>
       </c>
@@ -798,12 +801,84 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>550</v>
       </c>
       <c r="E34">
         <v>650</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>550</v>
+      </c>
+      <c r="E35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56C333-3D19-C141-99F3-3B01B6585310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868F7D2-0013-7545-B57E-01B329CA52AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Additive" sheetId="1" r:id="rId1"/>
+    <sheet name="Dominance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -87,13 +110,34 @@
   </si>
   <si>
     <t>jugement d'indifférence pour température</t>
+  </si>
+  <si>
+    <t>jugement d'indifférence pour Mousse</t>
+  </si>
+  <si>
+    <t>MIN/MAX</t>
+  </si>
+  <si>
+    <t>g1Or</t>
+  </si>
+  <si>
+    <t>g2Or</t>
+  </si>
+  <si>
+    <t>g3Or</t>
+  </si>
+  <si>
+    <t>g4Or</t>
+  </si>
+  <si>
+    <t>g5Or</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +151,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,10 +167,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -128,14 +188,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +967,1105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AD970-769F-5440-BD83-72826FE4EE68}">
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>329</v>
+      </c>
+      <c r="I2">
+        <f>C2*C$12</f>
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:M10" si="0">D2*D$12</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>-329</v>
+      </c>
+      <c r="O2" t="str" cm="1">
+        <f t="array" ref="O2:X6">TRANSPOSE(I1:M10)</f>
+        <v>g1Or</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>600</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="1">C3*C$12</f>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="O3" t="str">
+        <v>g2Or</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>549</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-549</v>
+      </c>
+      <c r="O4" t="str">
+        <v>g3Or</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>549</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-549</v>
+      </c>
+      <c r="O5" t="str">
+        <v>g4Or</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>1.5</v>
+      </c>
+      <c r="R5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>1.7</v>
+      </c>
+      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="W5">
+        <v>1.8</v>
+      </c>
+      <c r="X5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>374</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-374</v>
+      </c>
+      <c r="O6" t="str">
+        <v>g5Or</v>
+      </c>
+      <c r="P6">
+        <v>-329</v>
+      </c>
+      <c r="Q6">
+        <v>-600</v>
+      </c>
+      <c r="R6">
+        <v>-549</v>
+      </c>
+      <c r="S6">
+        <v>-549</v>
+      </c>
+      <c r="T6">
+        <v>-374</v>
+      </c>
+      <c r="U6">
+        <v>-1310</v>
+      </c>
+      <c r="V6">
+        <v>-399</v>
+      </c>
+      <c r="W6">
+        <v>-499</v>
+      </c>
+      <c r="X6">
+        <v>-349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>-1310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>399</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>499</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>349</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>-349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">SUM(ABS(C12:G12))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="J18" t="str" cm="1">
+        <f t="array" ref="J18:R18">TRANSPOSE(_xlfn.ANCHORARRAY(I19))</f>
+        <v>BEKO CEG3190B</v>
+      </c>
+      <c r="K18" t="str">
+        <v>MELITTA LATTICIA OT F300-100</v>
+      </c>
+      <c r="L18" t="str">
+        <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
+      </c>
+      <c r="M18" t="str">
+        <v>PHILIPS EP3246/70</v>
+      </c>
+      <c r="N18" t="str">
+        <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
+      </c>
+      <c r="O18" t="str">
+        <v>SAECO XELSIS DELUXE SM8785/00</v>
+      </c>
+      <c r="P18" t="str">
+        <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
+      </c>
+      <c r="R18" t="str">
+        <v>QILIVE Q.5404 (600094159)</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19:I27">B2:B10</f>
+        <v>BEKO CEG3190B</v>
+      </c>
+      <c r="J19" s="4" cm="1">
+        <f t="array" ref="J19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" cm="1">
+        <f t="array" ref="N19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" cm="1">
+        <f t="array" ref="O19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" cm="1">
+        <f t="array" ref="P19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" cm="1">
+        <f t="array" ref="R19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <v>MELITTA LATTICIA OT F300-100</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" cm="1">
+        <f t="array" ref="K20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" cm="1">
+        <f t="array" ref="M20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" cm="1">
+        <f t="array" ref="N20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" cm="1">
+        <f t="array" ref="O20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" cm="1">
+        <f t="array" ref="P20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" cm="1">
+        <f t="array" ref="Q20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" cm="1">
+        <f t="array" ref="R20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I21" t="str">
+        <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" cm="1">
+        <f t="array" ref="N21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" cm="1">
+        <f t="array" ref="O21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" cm="1">
+        <f t="array" ref="P21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" cm="1">
+        <f t="array" ref="R21">IF(SUM(IF($I4:$M4&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <v>PHILIPS EP3246/70</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" cm="1">
+        <f t="array" ref="M22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" ref="N22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" cm="1">
+        <f t="array" ref="O22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" cm="1">
+        <f t="array" ref="P22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" cm="1">
+        <f t="array" ref="Q22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" cm="1">
+        <f t="array" ref="R22">IF(SUM(IF($I5:$M5&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I23" t="str">
+        <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" cm="1">
+        <f t="array" ref="M23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" cm="1">
+        <f t="array" ref="N23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O23" cm="1">
+        <f t="array" ref="O23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" cm="1">
+        <f t="array" ref="P23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" cm="1">
+        <f t="array" ref="R23">IF(SUM(IF($I6:$M6&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I24" t="str">
+        <v>SAECO XELSIS DELUXE SM8785/00</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" cm="1">
+        <f t="array" ref="N24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" cm="1">
+        <f t="array" ref="O24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" cm="1">
+        <f t="array" ref="P24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" cm="1">
+        <f t="array" ref="R24">IF(SUM(IF($I7:$M7&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I25" t="str">
+        <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" cm="1">
+        <f t="array" ref="M25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" cm="1">
+        <f t="array" ref="N25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" cm="1">
+        <f t="array" ref="O25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" cm="1">
+        <f t="array" ref="P25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" cm="1">
+        <f t="array" ref="Q25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" cm="1">
+        <f t="array" ref="R25">IF(SUM(IF($I8:$M8&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I26" t="str">
+        <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" cm="1">
+        <f t="array" ref="K26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" cm="1">
+        <f t="array" ref="O26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" cm="1">
+        <f t="array" ref="P26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" cm="1">
+        <f t="array" ref="Q26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R26" cm="1">
+        <f t="array" ref="R26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I27" t="str">
+        <v>QILIVE Q.5404 (600094159)</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(R$2:R$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(S$2:S$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(T$2:T$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" cm="1">
+        <f t="array" ref="O27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(U$2:U$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" cm="1">
+        <f t="array" ref="P27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(V$2:V$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(W$2:W$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" cm="1">
+        <f t="array" ref="R27">IF(SUM(IF($I10:$M10&gt;=TRANSPOSE(X$2:X$6),1,0))&gt;=$I$12,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:R27">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Café.xlsx
+++ b/Café.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingri\Ma1\AMCD\projetaidmulticrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868F7D2-0013-7545-B57E-01B329CA52AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3502F1D-A650-4A7A-B7C7-DE4E5CB676F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -132,6 +132,12 @@
   <si>
     <t>g5Or</t>
   </si>
+  <si>
+    <t>jugement d'indifférence pour Bruit et Vibration</t>
+  </si>
+  <si>
+    <t>utilités</t>
+  </si>
 </sst>
 </file>
 
@@ -188,17 +194,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -209,16 +219,6 @@
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
   </dxfs>
@@ -551,20 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="5" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -580,8 +580,23 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -603,8 +618,12 @@
       <c r="G2" s="1">
         <v>329</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K2" t="e">
+        <f ca="1">_xlfn.FORECAST.LINEAR(F2,OFFSET(K$17:K$26,MATCH(F2,C$28:F$35,1)-1,0,2),OFFSET(C$28:C$35,MATCH(C6,C$28:C$35,1)-1,0,2))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -627,7 +646,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -650,7 +669,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -672,8 +691,12 @@
       <c r="G5" s="1">
         <v>549</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="e">
+        <f ca="1">_xlfn.FORECAST.LINEAR(C6,OFFSET(G$28:G$35,MATCH(C6,C$28:C$35,1)-1,0,2),OFFSET(C$28:C$35,MATCH(C6,C$28:C$35,1)-1,0,2))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -696,7 +719,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -719,7 +742,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -742,7 +765,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -765,7 +788,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -788,12 +811,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>AVERAGE(G2:G10)</f>
         <v>550.88888888888891</v>
@@ -802,7 +828,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -818,57 +844,382 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
       <c r="G16">
         <v>328</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1.6</v>
+      </c>
       <c r="G17">
         <v>329</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <v>75</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17:K26">O17:O26</f>
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <f>(N16-1)*100/$N$17</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1.65</v>
+      </c>
       <c r="G18">
         <v>1310</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O26" si="0">(N17-1)*100/$N$17</f>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1.7</v>
+      </c>
       <c r="G19">
         <v>1311</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1.8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1.9</v>
+      </c>
+      <c r="K21">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2.1</v>
+      </c>
+      <c r="K23">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K24">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2.4</v>
+      </c>
+      <c r="K25">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>550</v>
       </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
       <c r="E29">
         <v>650</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1.6</v>
+      </c>
+      <c r="H29">
+        <v>650</v>
+      </c>
+      <c r="I29">
+        <v>2.5</v>
+      </c>
+      <c r="J29">
+        <v>550</v>
+      </c>
+      <c r="K29">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>550</v>
       </c>
+      <c r="D30">
+        <v>1.6</v>
+      </c>
       <c r="E30">
         <v>650</v>
       </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1.65</v>
+      </c>
+      <c r="H30">
+        <v>650</v>
+      </c>
+      <c r="I30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J30">
+        <v>550</v>
+      </c>
+      <c r="K30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>550</v>
       </c>
+      <c r="D31">
+        <v>1.65</v>
+      </c>
       <c r="E31">
         <v>650</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="H31">
+        <v>650</v>
+      </c>
+      <c r="I31">
+        <v>2.1</v>
+      </c>
+      <c r="J31">
+        <v>550</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>550</v>
       </c>
@@ -878,32 +1229,101 @@
       <c r="E32">
         <v>650</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1.9</v>
+      </c>
+      <c r="H32">
+        <v>650</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>550</v>
+      </c>
+      <c r="K32">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>550</v>
       </c>
+      <c r="D33">
+        <v>1.9</v>
+      </c>
       <c r="E33">
         <v>650</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>2.1</v>
+      </c>
+      <c r="H33">
+        <v>650</v>
+      </c>
+      <c r="I33">
+        <v>1.8</v>
+      </c>
+      <c r="J33">
+        <v>550</v>
+      </c>
+      <c r="K33">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>550</v>
       </c>
+      <c r="D34">
+        <v>2.1</v>
+      </c>
       <c r="E34">
         <v>650</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H34">
+        <v>650</v>
+      </c>
+      <c r="I34">
+        <v>1.7</v>
+      </c>
+      <c r="J34">
+        <v>550</v>
+      </c>
+      <c r="K34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>550</v>
       </c>
+      <c r="D35">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="E35">
         <v>650</v>
       </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>2.4</v>
+      </c>
+      <c r="H35">
+        <v>650</v>
+      </c>
+      <c r="I35">
+        <v>1.6</v>
+      </c>
+      <c r="J35">
+        <v>550</v>
+      </c>
+      <c r="K35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -911,63 +1331,111 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>1</v>
+      </c>
+      <c r="D39">
+        <v>300</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
+      <c r="F39">
+        <v>400</v>
+      </c>
       <c r="G39">
         <v>2</v>
       </c>
+      <c r="H39">
+        <v>450</v>
+      </c>
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>2</v>
       </c>
+      <c r="D40">
+        <v>400</v>
+      </c>
       <c r="E40">
         <v>3</v>
       </c>
+      <c r="F40">
+        <v>600</v>
+      </c>
       <c r="G40">
         <v>3</v>
+      </c>
+      <c r="H40">
+        <v>600</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>3</v>
       </c>
+      <c r="D41">
+        <v>600</v>
+      </c>
       <c r="E41">
         <v>4</v>
       </c>
+      <c r="F41">
+        <v>900</v>
+      </c>
       <c r="G41">
         <v>4</v>
       </c>
+      <c r="H41">
+        <v>1000</v>
+      </c>
       <c r="I41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>4</v>
       </c>
+      <c r="D42">
+        <v>900</v>
+      </c>
       <c r="E42">
         <v>5</v>
       </c>
+      <c r="F42">
+        <v>1500</v>
+      </c>
       <c r="G42">
         <v>5</v>
       </c>
+      <c r="H42">
+        <v>1500</v>
+      </c>
       <c r="I42">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>17</v>
       </c>
@@ -975,63 +1443,226 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>1</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
       <c r="G46">
         <v>2</v>
       </c>
+      <c r="H46">
+        <v>400</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>2</v>
       </c>
+      <c r="D47">
+        <v>300</v>
+      </c>
       <c r="E47">
         <v>3</v>
       </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
       <c r="G47">
         <v>3</v>
+      </c>
+      <c r="H47">
+        <v>700</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>3</v>
       </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
       <c r="E48">
         <v>4</v>
       </c>
+      <c r="F48">
+        <v>600</v>
+      </c>
       <c r="G48">
         <v>4</v>
       </c>
+      <c r="H48">
+        <v>900</v>
+      </c>
       <c r="I48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>4</v>
       </c>
+      <c r="D49">
+        <v>600</v>
+      </c>
       <c r="E49">
         <v>5</v>
       </c>
+      <c r="F49">
+        <v>1500</v>
+      </c>
       <c r="G49">
         <v>5</v>
       </c>
+      <c r="H49">
+        <v>1500</v>
+      </c>
       <c r="I49">
         <v>4</v>
       </c>
+      <c r="J49">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>400</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>400</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>400</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>500</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>900</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1000</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>1500</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>1500</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F16:F25">
+    <sortCondition ref="F16:F25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1040,25 +1671,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AD970-769F-5440-BD83-72826FE4EE68}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="58" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -1086,11 +1717,11 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1164,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1237,7 +1868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1310,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1383,7 +2014,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1456,7 +2087,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1499,7 +2130,7 @@
         <v>-1310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1542,7 +2173,7 @@
         <v>-399</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1585,7 +2216,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1628,7 +2259,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.3">
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:R18">TRANSPOSE(_xlfn.ANCHORARRAY(I19))</f>
         <v>BEKO CEG3190B</v>
@@ -1682,12 +2313,12 @@
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I19" t="str" cm="1">
         <f t="array" ref="I19:I27">B2:B10</f>
         <v>BEKO CEG3190B</v>
       </c>
-      <c r="J19" s="4" cm="1">
+      <c r="J19" s="3" cm="1">
         <f t="array" ref="J19">IF(SUM(IF($I2:$M2&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
         <v>1</v>
       </c>
@@ -1724,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I20" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
@@ -1732,7 +2363,7 @@
         <f t="array" ref="J20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="4" cm="1">
+      <c r="K20" s="3" cm="1">
         <f t="array" ref="K20">IF(SUM(IF($I3:$M3&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
         <v>1</v>
       </c>
@@ -1765,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I21" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
@@ -1806,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I22" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
@@ -1847,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I23" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
@@ -1888,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I24" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
@@ -1929,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I25" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
@@ -1970,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I26" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
@@ -1978,7 +2609,7 @@
         <f t="array" ref="J26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(P$2:P$6),1,0))&gt;=$I$12,1,0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="4" cm="1">
+      <c r="K26" s="3" cm="1">
         <f t="array" ref="K26">IF(SUM(IF($I9:$M9&gt;=TRANSPOSE(Q$2:Q$6),1,0))&gt;=$I$12,1,0)</f>
         <v>1</v>
       </c>
@@ -2011,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:18" x14ac:dyDescent="0.3">
       <c r="I27" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
@@ -2053,16 +2684,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="I18:R27">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:R27">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingri\Ma1\AMCD\projetaidmulticrit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3502F1D-A650-4A7A-B7C7-DE4E5CB676F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705FE49-B4BE-8541-9288-4620D5E370D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,11 +224,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,18 +588,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="4" max="5" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -596,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -619,11 +654,11 @@
         <v>329</v>
       </c>
       <c r="K2" t="e">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F2,OFFSET(K$17:K$26,MATCH(F2,C$28:F$35,1)-1,0,2),OFFSET(C$28:C$35,MATCH(C6,C$28:C$35,1)-1,0,2))</f>
+        <f ca="1">_xlfn.FORECAST.LINEAR(F2,OFFSET(K$17:K$26,MATCH(F2,F$17:F$26,1)-1,0,2),OFFSET(F$17:F$26,MATCH(F2,F$17:F$26,1)-1,0,2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -645,8 +680,12 @@
       <c r="G3" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K10" ca="1" si="0">_xlfn.FORECAST.LINEAR(F3,OFFSET(K$17:K$26,MATCH(F3,F$17:F$26,1)-1,0,2),OFFSET(F$17:F$26,MATCH(F3,F$17:F$26,1)-1,0,2))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -668,8 +707,12 @@
       <c r="G4" s="1">
         <v>549</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -695,8 +738,12 @@
         <f ca="1">_xlfn.FORECAST.LINEAR(C6,OFFSET(G$28:G$35,MATCH(C6,C$28:C$35,1)-1,0,2),OFFSET(C$28:C$35,MATCH(C6,C$28:C$35,1)-1,0,2))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -718,8 +765,12 @@
       <c r="G6" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -741,8 +792,12 @@
       <c r="G7" s="1">
         <v>1310</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -764,8 +819,12 @@
       <c r="G8" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -787,8 +846,12 @@
       <c r="G9" s="1">
         <v>499</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -810,8 +873,12 @@
       <c r="G10" s="1">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -819,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F14">
         <f>AVERAGE(G2:G10)</f>
         <v>550.88888888888891</v>
@@ -828,7 +895,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -860,35 +927,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1.5</v>
-      </c>
-      <c r="G16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="8">
         <v>328</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>100</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>100</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>100</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>100</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>100</v>
       </c>
       <c r="N16">
@@ -898,36 +965,36 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1.6</v>
-      </c>
-      <c r="G17">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="G17" s="8">
         <v>329</v>
       </c>
-      <c r="H17">
-        <v>75</v>
-      </c>
-      <c r="I17">
-        <v>75</v>
-      </c>
-      <c r="J17">
-        <v>75</v>
-      </c>
-      <c r="K17" cm="1">
+      <c r="H17" s="4">
+        <v>100</v>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+      <c r="J17" s="6">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" cm="1">
         <f t="array" ref="K17:K26">O17:O26</f>
         <v>100</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>100</v>
       </c>
       <c r="N17">
@@ -938,210 +1005,257 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1.65</v>
-      </c>
-      <c r="G18">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18" s="8">
         <v>1310</v>
       </c>
-      <c r="H18">
-        <v>50</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-      <c r="K18">
+      <c r="H18" s="4">
+        <v>80</v>
+      </c>
+      <c r="I18" s="5">
+        <v>90</v>
+      </c>
+      <c r="J18" s="6">
+        <v>60</v>
+      </c>
+      <c r="K18" s="7">
         <v>88.888888888888886</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>0</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O26" si="0">(N17-1)*100/$N$17</f>
+        <f t="shared" ref="O18:O26" si="1">(N17-1)*100/$N$17</f>
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>1.7</v>
-      </c>
-      <c r="G19">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="G19" s="8">
         <v>1311</v>
       </c>
-      <c r="H19">
-        <v>25</v>
-      </c>
-      <c r="I19">
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <v>25</v>
-      </c>
-      <c r="K19">
+      <c r="H19" s="4">
+        <v>60</v>
+      </c>
+      <c r="I19" s="5">
+        <v>80</v>
+      </c>
+      <c r="J19" s="6">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7">
         <v>77.777777777777771</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>0</v>
       </c>
       <c r="N19">
         <v>7</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>1.8</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5">
+        <v>40</v>
+      </c>
+      <c r="J20" s="6">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
         <v>66.666666666666671</v>
       </c>
       <c r="N20">
         <v>6</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F21">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
         <v>1.9</v>
       </c>
-      <c r="K21">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
         <v>55.555555555555557</v>
       </c>
       <c r="N21">
         <v>5</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="K22">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
         <v>44.444444444444443</v>
       </c>
       <c r="N22">
         <v>4</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <v>2.1</v>
-      </c>
-      <c r="K23">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F23" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="K23" s="7">
         <v>33.333333333333336</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K24">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F24" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="K24" s="7">
         <v>22.222222222222221</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F25">
-        <v>2.4</v>
-      </c>
-      <c r="K25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F25" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="K25" s="7">
         <v>11.111111111111111</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="K26">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F26" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="7">
         <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F27" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>550</v>
       </c>
@@ -1167,7 +1281,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>550</v>
       </c>
@@ -1193,7 +1307,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>550</v>
       </c>
@@ -1219,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>550</v>
       </c>
@@ -1245,7 +1359,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>550</v>
       </c>
@@ -1271,7 +1385,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>550</v>
       </c>
@@ -1297,7 +1411,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>550</v>
       </c>
@@ -1323,7 +1437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>1</v>
       </c>
@@ -1357,7 +1471,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>2</v>
       </c>
@@ -1383,7 +1497,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>3</v>
       </c>
@@ -1409,7 +1523,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>4</v>
       </c>
@@ -1435,7 +1549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>1</v>
       </c>
@@ -1469,7 +1583,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>2</v>
       </c>
@@ -1495,7 +1609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>3</v>
       </c>
@@ -1521,7 +1635,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>4</v>
       </c>
@@ -1547,7 +1661,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>1</v>
       </c>
@@ -1581,7 +1695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>2</v>
       </c>
@@ -1607,7 +1721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>3</v>
       </c>
@@ -1633,7 +1747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>4</v>
       </c>
@@ -1660,8 +1774,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F16:F25">
-    <sortCondition ref="F16:F25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F16:F27">
+    <sortCondition descending="1" ref="F16:F27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1675,21 +1789,21 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="39.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1795,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1868,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1941,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2014,7 +2128,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2087,7 +2201,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2130,7 +2244,7 @@
         <v>-1310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2173,7 +2287,7 @@
         <v>-399</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2216,7 +2330,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2259,7 +2373,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:R18">TRANSPOSE(_xlfn.ANCHORARRAY(I19))</f>
         <v>BEKO CEG3190B</v>
@@ -2313,7 +2427,7 @@
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I19" t="str" cm="1">
         <f t="array" ref="I19:I27">B2:B10</f>
         <v>BEKO CEG3190B</v>
@@ -2355,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I20" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
@@ -2396,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I21" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
@@ -2437,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I22" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
@@ -2478,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I23" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
@@ -2519,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I24" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
@@ -2560,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I25" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
@@ -2601,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I26" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
@@ -2642,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I27" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD443E8A-4D28-294E-8AEB-FFF6A47A3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61878F3A-C5E0-0B45-87A9-2508A63B29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +234,11 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Damascus Regular"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -279,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -413,11 +418,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,48 +578,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5406,11 +5552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AD970-769F-5440-BD83-72826FE4EE68}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="F7" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -5424,7 +5570,7 @@
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -5456,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5530,7 +5676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5603,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5676,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5749,7 +5895,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5822,7 +5968,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5865,7 +6011,7 @@
         <v>-1310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5908,7 +6054,7 @@
         <v>-399</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5951,7 +6097,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5994,7 +6140,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -6018,7 +6164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18">
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:R18">TRANSPOSE(_xlfn.ANCHORARRAY(I19))</f>
         <v>BEKO CEG3190B</v>
@@ -6048,7 +6194,7 @@
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:18">
       <c r="I19" t="str" cm="1">
         <f t="array" ref="I19:I27">B2:B10</f>
         <v>BEKO CEG3190B</v>
@@ -6090,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:18">
       <c r="I20" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
@@ -6131,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:18">
       <c r="I21" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
@@ -6172,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:18">
       <c r="I22" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
@@ -6213,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:18">
       <c r="I23" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
@@ -6254,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:18">
       <c r="I24" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
@@ -6295,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:18">
       <c r="I25" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
@@ -6336,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:18">
       <c r="I26" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
@@ -6377,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:18">
       <c r="I27" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
@@ -6438,22 +6584,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="5" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="9"/>
-    <col min="13" max="13" width="10.83203125" style="36"/>
+    <col min="13" max="13" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6512,22 +6658,22 @@
         <v>80</v>
       </c>
       <c r="I2">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D2,OFFSET(I$26:I$30,MATCH(D2,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D2,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ref="I2:I10" ca="1" si="0">_xlfn.FORECAST.LINEAR(D2,OFFSET(I$26:I$30,MATCH(D2,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D2,D$26:D$30,1)-1,0,2))</f>
         <v>80</v>
       </c>
       <c r="J2">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E2,OFFSET(J$26:J$30,MATCH(E2,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E2,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ref="J2:J10" ca="1" si="1">_xlfn.FORECAST.LINEAR(E2,OFFSET(J$26:J$30,MATCH(E2,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E2,E$26:E$30,1)-1,0,2))</f>
         <v>100</v>
       </c>
       <c r="K2">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F2,OFFSET(K$26:K$35,MATCH(F2,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F2,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ref="K2:K12" ca="1" si="2">_xlfn.FORECAST.LINEAR(F2,OFFSET(K$26:K$35,MATCH(F2,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F2,F$26:F$35,1)-1,0,2))</f>
         <v>-2.8421709430404007E-14</v>
       </c>
       <c r="L2">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G2,OFFSET(L$26:L$27,MATCH(G2,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G2,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ref="L2:L18" ca="1" si="3">_xlfn.FORECAST.LINEAR(G2,OFFSET(L$26:L$27,MATCH(G2,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G2,G$26:G$27,1)-1,0,2))</f>
         <v>100</v>
       </c>
-      <c r="M2" s="36" cm="1">
+      <c r="M2" s="28" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">MMULT(H2:K2,TRANSPOSE(H$19:K$19))</f>
         <v>97.251135786818494</v>
       </c>
@@ -6536,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6559,35 +6705,35 @@
         <v>600</v>
       </c>
       <c r="H3">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C3,OFFSET(H$26:H$30,MATCH(C3,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C3,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ref="H3:H10" ca="1" si="4">_xlfn.FORECAST.LINEAR(C3,OFFSET(H$26:H$30,MATCH(C3,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C3,C$26:C$30,1)-1,0,2))</f>
         <v>100</v>
       </c>
       <c r="I3">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D3,OFFSET(I$26:I$30,MATCH(D3,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D3,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>80</v>
       </c>
       <c r="J3">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E3,OFFSET(J$26:J$30,MATCH(E3,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E3,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
       <c r="K3">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F3,OFFSET(K$26:K$35,MATCH(F3,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F3,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-2.8421709430404007E-14</v>
       </c>
       <c r="L3">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G3,OFFSET(L$26:L$27,MATCH(G3,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G3,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>72.375127420998979</v>
       </c>
-      <c r="M3" s="36" cm="1">
+      <c r="M3" s="28" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">MMULT(H3:K3,TRANSPOSE(H$19:K$19))</f>
         <v>69.811743989590497</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" ca="1" si="0">RANK(M3,M$2:M$10)</f>
+        <f t="shared" ref="N3:N10" ca="1" si="5">RANK(M3,M$2:M$10)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6610,35 +6756,35 @@
         <v>549</v>
       </c>
       <c r="H4">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C4,OFFSET(H$26:H$30,MATCH(C4,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C4,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="I4">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D4,OFFSET(I$26:I$30,MATCH(D4,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D4,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>80</v>
       </c>
       <c r="J4">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E4,OFFSET(J$26:J$30,MATCH(E4,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E4,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="K4">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F4,OFFSET(K$26:K$35,MATCH(F4,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F4,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>88.888888888888886</v>
       </c>
       <c r="L4">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G4,OFFSET(L$26:L$27,MATCH(G4,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G4,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M4" s="36" cm="1">
+      <c r="M4" s="28" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">MMULT(H4:K4,TRANSPOSE(H$19:K$19))</f>
         <v>75.790749292928581</v>
       </c>
       <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6661,35 +6807,35 @@
         <v>549</v>
       </c>
       <c r="H5">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C5,OFFSET(H$26:H$30,MATCH(C5,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C5,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
       <c r="I5">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D5,OFFSET(I$26:I$30,MATCH(D5,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D5,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="J5">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E5,OFFSET(J$26:J$30,MATCH(E5,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E5,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="K5">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F5,OFFSET(K$26:K$35,MATCH(F5,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F5,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44.444444444444429</v>
       </c>
       <c r="L5">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G5,OFFSET(L$26:L$27,MATCH(G5,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G5,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M5" s="36" cm="1">
+      <c r="M5" s="28" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">MMULT(H5:K5,TRANSPOSE(H$19:K$19))</f>
         <v>62.807514409823796</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6712,35 +6858,35 @@
         <v>374</v>
       </c>
       <c r="H6">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C6,OFFSET(H$26:H$30,MATCH(C6,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C6,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="I6">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D6,OFFSET(I$26:I$30,MATCH(D6,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D6,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="J6">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E6,OFFSET(J$26:J$30,MATCH(E6,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E6,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="K6">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F6,OFFSET(K$26:K$35,MATCH(F6,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F6,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44.444444444444429</v>
       </c>
       <c r="L6">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G6,OFFSET(L$26:L$27,MATCH(G6,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G6,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>95.412844036697251</v>
       </c>
-      <c r="M6" s="36" cm="1">
+      <c r="M6" s="28" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">MMULT(H6:K6,TRANSPOSE(H$19:K$19))</f>
         <v>66.389096446542354</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6763,35 +6909,35 @@
         <v>1310</v>
       </c>
       <c r="H7">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C7,OFFSET(H$26:H$30,MATCH(C7,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C7,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="I7">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D7,OFFSET(I$26:I$30,MATCH(D7,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D7,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="J7">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E7,OFFSET(J$26:J$30,MATCH(E7,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E7,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="K7">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F7,OFFSET(K$26:K$35,MATCH(F7,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F7,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33.333333333333343</v>
       </c>
       <c r="L7">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G7,OFFSET(L$26:L$27,MATCH(G7,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G7,G$26:G$27,1)-1,0,2))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="36" cm="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="28" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">MMULT(H7:K7,TRANSPOSE(H$19:K$19))</f>
         <v>63.702909919003439</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6814,35 +6960,35 @@
         <v>399</v>
       </c>
       <c r="H8">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C8,OFFSET(H$26:H$30,MATCH(C8,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C8,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="I8">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D8,OFFSET(I$26:I$30,MATCH(D8,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D8,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>90</v>
       </c>
       <c r="J8">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E8,OFFSET(J$26:J$30,MATCH(E8,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E8,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="K8">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F8,OFFSET(K$26:K$35,MATCH(F8,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F8,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44.444444444444429</v>
       </c>
       <c r="L8">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G8,OFFSET(L$26:L$27,MATCH(G8,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G8,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>92.864424057084619</v>
       </c>
-      <c r="M8" s="36" cm="1">
+      <c r="M8" s="28" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">MMULT(H8:K8,TRANSPOSE(H$19:K$19))</f>
         <v>65.71754981465763</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6865,35 +7011,35 @@
         <v>499</v>
       </c>
       <c r="H9">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C9,OFFSET(H$26:H$30,MATCH(C9,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C9,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="I9">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D9,OFFSET(I$26:I$30,MATCH(D9,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D9,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
       <c r="J9">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E9,OFFSET(J$26:J$30,MATCH(E9,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E9,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
       <c r="K9">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F9,OFFSET(K$26:K$35,MATCH(F9,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F9,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44.444444444444429</v>
       </c>
       <c r="L9">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G9,OFFSET(L$26:L$27,MATCH(G9,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G9,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82.670744138634049</v>
       </c>
-      <c r="M9" s="36" cm="1">
+      <c r="M9" s="28" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">MMULT(H9:K9,TRANSPOSE(H$19:K$19))</f>
         <v>81.899583363515632</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="17" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6916,188 +7062,188 @@
         <v>349</v>
       </c>
       <c r="H10">
-        <f ca="1">_xlfn.FORECAST.LINEAR(C10,OFFSET(H$26:H$30,MATCH(C10,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C10,C$26:C$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
       <c r="I10">
-        <f ca="1">_xlfn.FORECAST.LINEAR(D10,OFFSET(I$26:I$30,MATCH(D10,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D10,D$26:D$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>80</v>
       </c>
       <c r="J10">
-        <f ca="1">_xlfn.FORECAST.LINEAR(E10,OFFSET(J$26:J$30,MATCH(E10,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E10,E$26:E$30,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F10,OFFSET(K$26:K$35,MATCH(F10,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F10,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44.444444444444429</v>
       </c>
       <c r="L10">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G10,OFFSET(L$26:L$27,MATCH(G10,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G10,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>97.961264016309883</v>
       </c>
-      <c r="M10" s="36" cm="1">
+      <c r="M10" s="28" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">MMULT(H10:K10,TRANSPOSE(H$19:K$19))</f>
         <v>30.443447312107772</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="14" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="12">
         <v>1.5</v>
       </c>
       <c r="G11" s="13">
         <v>550</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="14">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F11,OFFSET(K$26:K$35,MATCH(F11,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F11,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-2.8421709430404007E-14</v>
       </c>
       <c r="L11" s="14">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G11,OFFSET(L$26:L$27,MATCH(G11,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G11,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77.471967380224271</v>
       </c>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1">
         <v>1.6</v>
       </c>
       <c r="G12" s="10">
         <v>650</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12">
-        <f ca="1">_xlfn.FORECAST.LINEAR(F12,OFFSET(K$26:K$35,MATCH(F12,F$26:F$35,1)-1,0,2),OFFSET(F$26:F$35,MATCH(F12,F$26:F$35,1)-1,0,2))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>11.111111111111086</v>
       </c>
-      <c r="L12" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G12,OFFSET(L$26:L$27,MATCH(G12,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G12,G$26:G$27,1)-1,0,2))</f>
+      <c r="L12">
+        <f t="shared" ca="1" si="3"/>
         <v>67.278287461773701</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="10">
         <v>400</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13">
         <f ca="1">_xlfn.FORECAST.LINEAR(E13,OFFSET(J$26:J$30,MATCH(E13,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E13,E$26:E$30,1)-1,0,2))</f>
         <v>10</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G13,OFFSET(L$26:L$27,MATCH(G13,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G13,G$26:G$27,1)-1,0,2))</f>
+      <c r="K13" s="17"/>
+      <c r="L13">
+        <f t="shared" ca="1" si="3"/>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="10">
         <v>500</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14">
         <f ca="1">_xlfn.FORECAST.LINEAR(E14,OFFSET(J$26:J$30,MATCH(E14,E$26:E$30,1)-1,0,2),OFFSET(E$26:E$30,MATCH(E14,E$26:E$30,1)-1,0,2))</f>
         <v>40</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G14,OFFSET(L$26:L$27,MATCH(G14,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G14,G$26:G$27,1)-1,0,2))</f>
+      <c r="K14" s="17"/>
+      <c r="L14">
+        <f t="shared" ca="1" si="3"/>
         <v>82.568807339449535</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="10">
         <v>400</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="17"/>
       <c r="I15">
         <f ca="1">_xlfn.FORECAST.LINEAR(D15,OFFSET(I$26:I$30,MATCH(D15,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D15,D$26:D$30,1)-1,0,2))</f>
         <v>40</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G15,OFFSET(L$26:L$27,MATCH(G15,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G15,G$26:G$27,1)-1,0,2))</f>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15">
+        <f t="shared" ca="1" si="3"/>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="10">
         <v>500</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="17"/>
       <c r="I16">
         <f ca="1">_xlfn.FORECAST.LINEAR(D16,OFFSET(I$26:I$30,MATCH(D16,D$26:D$30,1)-1,0,2),OFFSET(D$26:D$30,MATCH(D16,D$26:D$30,1)-1,0,2))</f>
         <v>80</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G16,OFFSET(L$26:L$27,MATCH(G16,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G16,G$26:G$27,1)-1,0,2))</f>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16">
+        <f t="shared" ca="1" si="3"/>
         <v>82.568807339449535</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="10">
         <v>400</v>
       </c>
@@ -7105,23 +7251,23 @@
         <f ca="1">_xlfn.FORECAST.LINEAR(C17,OFFSET(H$26:H$30,MATCH(C17,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C17,C$26:C$30,1)-1,0,2))</f>
         <v>30</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G17,OFFSET(L$26:L$27,MATCH(G17,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G17,G$26:G$27,1)-1,0,2))</f>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17">
+        <f t="shared" ca="1" si="3"/>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="10">
         <v>600</v>
       </c>
@@ -7129,82 +7275,71 @@
         <f ca="1">_xlfn.FORECAST.LINEAR(C18,OFFSET(H$26:H$30,MATCH(C18,C$26:C$30,1)-1,0,2),OFFSET(C$26:C$30,MATCH(C18,C$26:C$30,1)-1,0,2))</f>
         <v>60</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="15">
-        <f ca="1">_xlfn.FORECAST.LINEAR(G18,OFFSET(L$26:L$27,MATCH(G18,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G18,G$26:G$27,1)-1,0,2))</f>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18">
+        <f t="shared" ca="1" si="3"/>
         <v>72.375127420998979</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19">
+    <row r="19" spans="1:15" s="14" customFormat="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14">
         <f ca="1">H20/SUM($H20:$L20)</f>
         <v>0.17907910183592804</v>
       </c>
-      <c r="I19" s="19">
-        <f t="shared" ref="I19:L19" ca="1" si="1">I20/SUM($H20:$L20)</f>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19:L19" ca="1" si="6">I20/SUM($H20:$L20)</f>
         <v>6.7154663188473074E-2</v>
       </c>
-      <c r="J19" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J19" s="14">
+        <f t="shared" ca="1" si="6"/>
         <v>0.77552434584866403</v>
       </c>
-      <c r="K19" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K19" s="14">
+        <f t="shared" ca="1" si="6"/>
         <v>0.24175678747850296</v>
       </c>
-      <c r="L19" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L19" s="14">
+        <f t="shared" ca="1" si="6"/>
         <v>-0.26351489835156805</v>
       </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22">
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="G20" s="10"/>
+      <c r="H20">
         <f ca="1">(L17-L18)/(H17-H18)</f>
         <v>-0.67957866123003752</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20">
         <f ca="1">(L15-L16)/(I15-I16)</f>
         <v>-0.25484199796126428</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20">
         <f ca="1">(J13-J14)/(L13-L14)</f>
         <v>-2.9429999999999974</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20">
         <f ca="1">(L11-L12)/(K11-K12)</f>
         <v>-0.91743119266055106</v>
       </c>
-      <c r="L20" s="22">
-        <v>1</v>
-      </c>
-      <c r="M20" s="50"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="27"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="20" customFormat="1" ht="17" thickBot="1">
+      <c r="G21" s="21"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -7212,7 +7347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="F23">
         <f>AVERAGE(G2:G10)</f>
         <v>550.88888888888891</v>
@@ -7221,7 +7356,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -7253,7 +7388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="C25" s="4">
         <v>0</v>
       </c>
@@ -7291,7 +7426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="C26" s="4">
         <v>1</v>
       </c>
@@ -7326,11 +7461,11 @@
         <v>9</v>
       </c>
       <c r="O26">
-        <f>(N25-1)*100/$N$26</f>
+        <f t="shared" ref="O26:O35" si="7">(N25-1)*100/$N$26</f>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="C27" s="4">
         <v>2</v>
       </c>
@@ -7365,11 +7500,11 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <f>(N26-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="C28" s="4">
         <v>3</v>
       </c>
@@ -7404,11 +7539,11 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <f>(N27-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="C29" s="4">
         <v>4</v>
       </c>
@@ -7437,11 +7572,11 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <f>(N28-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="C30" s="4">
         <v>5</v>
       </c>
@@ -7470,11 +7605,11 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <f>(N29-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="C31" s="4">
         <v>6</v>
       </c>
@@ -7503,11 +7638,11 @@
         <v>4</v>
       </c>
       <c r="O31">
-        <f>(N30-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="F32" s="7">
         <v>2</v>
       </c>
@@ -7518,11 +7653,11 @@
         <v>3</v>
       </c>
       <c r="O32">
-        <f>(N31-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15">
       <c r="F33" s="7">
         <v>2.1</v>
       </c>
@@ -7533,11 +7668,11 @@
         <v>2</v>
       </c>
       <c r="O33">
-        <f>(N32-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15">
       <c r="F34" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -7548,11 +7683,11 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f>(N33-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15">
       <c r="F35" s="7">
         <v>2.4</v>
       </c>
@@ -7563,11 +7698,11 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f>(N34-1)*100/$N$26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
       <c r="F36" s="7">
         <v>2.5</v>
       </c>
@@ -7575,534 +7710,671 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="37" spans="3:15" ht="18">
+      <c r="C37" s="48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C38">
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="3:15" ht="18">
+      <c r="C38" s="47">
         <v>550</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="47">
         <v>1.5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="47">
         <v>650</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="47">
         <v>1.6</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="47"/>
+      <c r="H38" s="47">
         <v>650</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="47">
         <v>2.5</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="47">
         <v>550</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="47">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C39">
+    <row r="39" spans="3:15" ht="18">
+      <c r="C39" s="46">
         <v>550</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="46">
         <v>1.6</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="46">
         <v>650</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="46">
         <v>1.65</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="46"/>
+      <c r="H39" s="46">
         <v>650</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="46">
         <v>550</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="46">
         <v>2.1</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C40">
+    <row r="40" spans="3:15" ht="18">
+      <c r="C40" s="46">
         <v>550</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="46">
         <v>1.65</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="46">
         <v>650</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="46">
         <v>1.8</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="46"/>
+      <c r="H40" s="46">
         <v>650</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="46">
         <v>2.1</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="46">
         <v>550</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="46">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C41">
+    <row r="41" spans="3:15" ht="18">
+      <c r="C41" s="46">
         <v>550</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="46">
         <v>1.8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="46">
         <v>650</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="46">
         <v>1.9</v>
       </c>
-      <c r="H41">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46">
         <v>650</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="46">
         <v>2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="46">
         <v>550</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="46">
         <v>1.8</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C42">
+    <row r="42" spans="3:15" ht="18">
+      <c r="C42" s="46">
         <v>550</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="46">
         <v>1.9</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="46">
         <v>650</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="46">
         <v>2.1</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46">
         <v>650</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="46">
         <v>1.8</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="46">
         <v>550</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="46">
         <v>1.7</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C43">
+    <row r="43" spans="3:15" ht="18">
+      <c r="C43" s="46">
         <v>550</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="46">
         <v>2.1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="46">
         <v>650</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="46"/>
+      <c r="H43" s="46">
         <v>650</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="46">
         <v>1.7</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="46">
         <v>550</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="46">
         <v>1.6</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C44">
+    <row r="44" spans="3:15" ht="18">
+      <c r="C44" s="51">
         <v>550</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="51">
         <v>650</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="51">
         <v>2.4</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51">
         <v>650</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="51">
         <v>1.6</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="51">
         <v>550</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="51">
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="45" spans="3:15" ht="18">
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" spans="3:15" ht="18">
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+    </row>
+    <row r="47" spans="3:15" ht="18">
+      <c r="C47" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+    </row>
+    <row r="48" spans="3:15" ht="18">
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
+      <c r="D48" s="47">
         <v>300</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="47">
         <v>2</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="47">
         <v>400</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="47">
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="47">
         <v>450</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="I48" s="47">
+        <v>1</v>
+      </c>
+      <c r="J48" s="47">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49">
+      <c r="K48" s="47"/>
+    </row>
+    <row r="49" spans="3:11" ht="18">
+      <c r="C49" s="46">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="46">
         <v>400</v>
       </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="46">
+        <v>3</v>
+      </c>
+      <c r="F49" s="46">
         <v>600</v>
       </c>
-      <c r="G49" s="9">
-        <v>3</v>
-      </c>
-      <c r="H49">
+      <c r="G49" s="46">
+        <v>3</v>
+      </c>
+      <c r="H49" s="46">
         <v>600</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="46">
         <v>2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="46">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
+      <c r="K49" s="46"/>
+    </row>
+    <row r="50" spans="3:11" ht="18">
+      <c r="C50" s="46">
+        <v>3</v>
+      </c>
+      <c r="D50" s="46">
         <v>600</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="46">
         <v>4</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="46">
         <v>900</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="46">
         <v>4</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="46">
         <v>1000</v>
       </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
+      <c r="I50" s="46">
+        <v>3</v>
+      </c>
+      <c r="J50" s="46">
         <v>600</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51">
+      <c r="K50" s="46"/>
+    </row>
+    <row r="51" spans="3:11" ht="18">
+      <c r="C51" s="51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="51">
         <v>900</v>
       </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="51">
+        <v>5</v>
+      </c>
+      <c r="F51" s="51">
         <v>1500</v>
       </c>
-      <c r="G51" s="9">
-        <v>5</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="51">
         <v>1500</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="51">
         <v>4</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+      <c r="K51" s="51"/>
+    </row>
+    <row r="52" spans="3:11" ht="18">
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="57"/>
+    </row>
+    <row r="53" spans="3:11" ht="18">
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="54"/>
+    </row>
+    <row r="54" spans="3:11" ht="18">
+      <c r="C54" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="54"/>
+    </row>
+    <row r="55" spans="3:11" ht="18">
+      <c r="C55" s="47">
+        <v>1</v>
+      </c>
+      <c r="D55" s="47">
         <v>200</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="47">
         <v>2</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="47">
         <v>300</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="47">
         <v>2</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="47">
         <v>400</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
+      <c r="I55" s="47">
+        <v>1</v>
+      </c>
+      <c r="J55" s="47">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56">
+      <c r="K55" s="47"/>
+    </row>
+    <row r="56" spans="3:11" ht="18">
+      <c r="C56" s="46">
         <v>2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="46">
         <v>400</v>
       </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="46">
+        <v>3</v>
+      </c>
+      <c r="F56" s="46">
         <v>500</v>
       </c>
-      <c r="G56" s="9">
-        <v>3</v>
-      </c>
-      <c r="H56">
+      <c r="G56" s="46">
+        <v>3</v>
+      </c>
+      <c r="H56" s="46">
         <v>700</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="46">
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="46">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
+      <c r="K56" s="46"/>
+    </row>
+    <row r="57" spans="3:11" ht="18">
+      <c r="C57" s="46">
+        <v>3</v>
+      </c>
+      <c r="D57" s="46">
         <v>500</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="46">
         <v>4</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="46">
         <v>600</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="46">
         <v>4</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="46">
         <v>900</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-      <c r="J57">
+      <c r="I57" s="46">
+        <v>3</v>
+      </c>
+      <c r="J57" s="46">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58">
+      <c r="K57" s="46"/>
+    </row>
+    <row r="58" spans="3:11" ht="18">
+      <c r="C58" s="51">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="51">
         <v>600</v>
       </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="51">
+        <v>5</v>
+      </c>
+      <c r="F58" s="51">
         <v>1500</v>
       </c>
-      <c r="G58" s="9">
-        <v>5</v>
-      </c>
-      <c r="H58">
+      <c r="G58" s="51">
+        <v>5</v>
+      </c>
+      <c r="H58" s="51">
         <v>1500</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="51">
         <v>4</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="51">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+      <c r="K58" s="51"/>
+    </row>
+    <row r="59" spans="3:11" ht="18">
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="57"/>
+    </row>
+    <row r="60" spans="3:11" ht="18">
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="54"/>
+    </row>
+    <row r="61" spans="3:11" ht="18">
+      <c r="C61" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="54"/>
+    </row>
+    <row r="62" spans="3:11" ht="18">
+      <c r="C62" s="47">
+        <v>1</v>
+      </c>
+      <c r="D62" s="47">
         <v>300</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="47">
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="47">
         <v>400</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="47">
         <v>2</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="47">
         <v>400</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
+      <c r="I62" s="47">
+        <v>1</v>
+      </c>
+      <c r="J62" s="47">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C63">
+      <c r="K62" s="47"/>
+    </row>
+    <row r="63" spans="3:11" ht="18">
+      <c r="C63" s="46">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="46">
         <v>400</v>
       </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
+      <c r="E63" s="46">
+        <v>3</v>
+      </c>
+      <c r="F63" s="46">
         <v>500</v>
       </c>
-      <c r="G63" s="9">
-        <v>3</v>
-      </c>
-      <c r="H63">
+      <c r="G63" s="46">
+        <v>3</v>
+      </c>
+      <c r="H63" s="46">
         <v>600</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="46">
         <v>2</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="46">
         <v>400</v>
       </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
+      <c r="K63" s="46"/>
+    </row>
+    <row r="64" spans="3:11" ht="18">
+      <c r="C64" s="46">
+        <v>3</v>
+      </c>
+      <c r="D64" s="46">
         <v>500</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="46">
         <v>4</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="46">
         <v>1000</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="46">
         <v>4</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="46">
         <v>900</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64">
+      <c r="I64" s="46">
+        <v>3</v>
+      </c>
+      <c r="J64" s="46">
         <v>600</v>
       </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C65">
+      <c r="K64" s="46"/>
+    </row>
+    <row r="65" spans="3:11" ht="18">
+      <c r="C65" s="46">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="46">
         <v>1000</v>
       </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="46">
+        <v>5</v>
+      </c>
+      <c r="F65" s="46">
         <v>1500</v>
       </c>
-      <c r="G65" s="9">
-        <v>5</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="46">
+        <v>5</v>
+      </c>
+      <c r="H65" s="46">
         <v>1500</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="46">
         <v>4</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="46">
         <v>900</v>
       </c>
+      <c r="K65" s="46"/>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+    </row>
+    <row r="68" spans="3:11">
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K25:K36">
     <sortCondition ref="K25:K36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8115,12 +8387,12 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="39.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -8148,7 +8420,7 @@
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
       <c r="N1" t="str" cm="1">
@@ -8180,7 +8452,7 @@
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8222,7 +8494,7 @@
         <f t="shared" si="0"/>
         <v>-329</v>
       </c>
-      <c r="M2" s="36" t="str" cm="1">
+      <c r="M2" s="28" t="str" cm="1">
         <f t="array" ref="M2:V6">TRANSPOSE(H1:L10)</f>
         <v>g1Or</v>
       </c>
@@ -8254,7 +8526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8296,7 +8568,7 @@
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="M3" s="36" t="str">
+      <c r="M3" s="28" t="str">
         <v>g2Or</v>
       </c>
       <c r="N3">
@@ -8327,7 +8599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8369,7 +8641,7 @@
         <f t="shared" si="0"/>
         <v>-549</v>
       </c>
-      <c r="M4" s="36" t="str">
+      <c r="M4" s="28" t="str">
         <v>g3Or</v>
       </c>
       <c r="N4">
@@ -8400,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8442,7 +8714,7 @@
         <f t="shared" si="0"/>
         <v>-549</v>
       </c>
-      <c r="M5" s="36" t="str">
+      <c r="M5" s="28" t="str">
         <v>g4Or</v>
       </c>
       <c r="N5">
@@ -8473,7 +8745,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8515,7 +8787,7 @@
         <f t="shared" si="0"/>
         <v>-374</v>
       </c>
-      <c r="M6" s="36" t="str">
+      <c r="M6" s="28" t="str">
         <v>g5Or</v>
       </c>
       <c r="N6">
@@ -8546,7 +8818,7 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8589,7 +8861,7 @@
         <v>-1310</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8632,7 +8904,7 @@
         <v>-399</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8675,7 +8947,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8718,19 +8990,19 @@
         <v>-349</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="17" thickBot="1">
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="14" customFormat="1">
       <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
@@ -8746,10 +9018,10 @@
       <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
         <v>-1</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="14">
         <v>0.1</v>
       </c>
       <c r="I15" s="14">
@@ -8764,23 +9036,23 @@
       <c r="L15" s="14">
         <v>0.3</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="29">
         <v>0.8</v>
       </c>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="G16" s="9"/>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:22">
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:22">
       <c r="G18" s="9"/>
       <c r="N18" t="str" cm="1">
         <f t="array" ref="N18:V18">_xlfn.ANCHORARRAY(N1)</f>
@@ -8811,9 +9083,9 @@
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
     </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:22">
       <c r="G19" s="9"/>
-      <c r="M19" s="36" t="str" cm="1">
+      <c r="M19" s="28" t="str" cm="1">
         <f t="array" ref="M19:M27">B2:B10</f>
         <v>BEKO CEG3190B</v>
       </c>
@@ -8854,8 +9126,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M20" s="36" t="str">
+    <row r="20" spans="7:22">
+      <c r="M20" s="28" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
       <c r="N20" cm="1">
@@ -8895,8 +9167,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M21" s="36" t="str">
+    <row r="21" spans="7:22">
+      <c r="M21" s="28" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
       <c r="N21" cm="1">
@@ -8936,8 +9208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M22" s="36" t="str">
+    <row r="22" spans="7:22">
+      <c r="M22" s="28" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
       <c r="N22" cm="1">
@@ -8977,8 +9249,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M23" s="36" t="str">
+    <row r="23" spans="7:22">
+      <c r="M23" s="28" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
       <c r="N23" cm="1">
@@ -9018,8 +9290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M24" s="36" t="str">
+    <row r="24" spans="7:22">
+      <c r="M24" s="28" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
       <c r="N24" cm="1">
@@ -9059,8 +9331,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M25" s="36" t="str">
+    <row r="25" spans="7:22">
+      <c r="M25" s="28" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
       <c r="N25" cm="1">
@@ -9100,8 +9372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M26" s="36" t="str">
+    <row r="26" spans="7:22">
+      <c r="M26" s="28" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
       <c r="N26" cm="1">
@@ -9141,8 +9413,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="M27" s="36" t="str">
+    <row r="27" spans="7:22">
+      <c r="M27" s="28" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
       <c r="N27" cm="1">
@@ -9200,2141 +9472,2132 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="36"/>
+    <col min="13" max="13" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="30" t="s">
+      <c r="Q1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="30" t="s">
+      <c r="S1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
         <v>4</v>
       </c>
-      <c r="D2" s="33">
-        <v>3</v>
-      </c>
-      <c r="E2" s="33">
-        <v>5</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="D2" s="26">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
         <v>1.5</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="27">
         <v>329</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="23">
         <v>4</v>
       </c>
-      <c r="I2" s="30">
-        <v>3</v>
-      </c>
-      <c r="J2" s="30">
-        <v>5</v>
-      </c>
-      <c r="K2" s="30">
+      <c r="I2" s="23">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23">
+        <v>5</v>
+      </c>
+      <c r="K2" s="23">
         <v>1.5</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="24">
         <v>-329</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="23">
         <v>4</v>
       </c>
-      <c r="O2" s="30">
-        <v>5</v>
-      </c>
-      <c r="P2" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="30">
+      <c r="O2" s="23">
+        <v>5</v>
+      </c>
+      <c r="P2" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="23">
         <v>4</v>
       </c>
-      <c r="R2" s="30">
-        <v>5</v>
-      </c>
-      <c r="S2" s="30">
-        <v>5</v>
-      </c>
-      <c r="T2" s="30">
-        <v>5</v>
-      </c>
-      <c r="U2" s="30">
-        <v>5</v>
-      </c>
-      <c r="V2" s="30">
+      <c r="R2" s="23">
+        <v>5</v>
+      </c>
+      <c r="S2" s="23">
+        <v>5</v>
+      </c>
+      <c r="T2" s="23">
+        <v>5</v>
+      </c>
+      <c r="U2" s="23">
+        <v>5</v>
+      </c>
+      <c r="V2" s="23">
         <v>4</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33">
-        <v>5</v>
-      </c>
-      <c r="D3" s="33">
-        <v>3</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26">
         <v>4</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="26">
         <v>1.5</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="27">
         <v>600</v>
       </c>
-      <c r="H3" s="30">
-        <v>5</v>
-      </c>
-      <c r="I3" s="30">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30">
+      <c r="H3" s="23">
+        <v>5</v>
+      </c>
+      <c r="I3" s="23">
+        <v>3</v>
+      </c>
+      <c r="J3" s="23">
         <v>4</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="23">
         <v>1.5</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="24">
         <v>-600</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="30">
-        <v>3</v>
-      </c>
-      <c r="O3" s="30">
-        <v>3</v>
-      </c>
-      <c r="P3" s="30">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="30">
-        <v>5</v>
-      </c>
-      <c r="R3" s="30">
-        <v>5</v>
-      </c>
-      <c r="S3" s="30">
-        <v>5</v>
-      </c>
-      <c r="T3" s="30">
+      <c r="N3" s="23">
+        <v>3</v>
+      </c>
+      <c r="O3" s="23">
+        <v>3</v>
+      </c>
+      <c r="P3" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>5</v>
+      </c>
+      <c r="R3" s="23">
+        <v>5</v>
+      </c>
+      <c r="S3" s="23">
+        <v>5</v>
+      </c>
+      <c r="T3" s="23">
         <v>4</v>
       </c>
-      <c r="U3" s="30">
-        <v>5</v>
-      </c>
-      <c r="V3" s="30">
-        <v>3</v>
-      </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="U3" s="23">
+        <v>5</v>
+      </c>
+      <c r="V3" s="23">
+        <v>3</v>
+      </c>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
-        <v>5</v>
-      </c>
-      <c r="D4" s="33">
-        <v>3</v>
-      </c>
-      <c r="E4" s="33">
-        <v>3</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="C4" s="26">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="27">
         <v>549</v>
       </c>
-      <c r="H4" s="30">
-        <v>5</v>
-      </c>
-      <c r="I4" s="30">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30">
-        <v>3</v>
-      </c>
-      <c r="K4" s="30">
+      <c r="H4" s="23">
+        <v>5</v>
+      </c>
+      <c r="I4" s="23">
+        <v>3</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3</v>
+      </c>
+      <c r="K4" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="24">
         <v>-549</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="30">
-        <v>5</v>
-      </c>
-      <c r="O4" s="30">
+      <c r="N4" s="23">
+        <v>5</v>
+      </c>
+      <c r="O4" s="23">
         <v>4</v>
       </c>
-      <c r="P4" s="30">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>3</v>
-      </c>
-      <c r="R4" s="30">
-        <v>3</v>
-      </c>
-      <c r="S4" s="30">
-        <v>3</v>
-      </c>
-      <c r="T4" s="30">
-        <v>3</v>
-      </c>
-      <c r="U4" s="30">
+      <c r="P4" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>3</v>
+      </c>
+      <c r="R4" s="23">
+        <v>3</v>
+      </c>
+      <c r="S4" s="23">
+        <v>3</v>
+      </c>
+      <c r="T4" s="23">
+        <v>3</v>
+      </c>
+      <c r="U4" s="23">
         <v>4</v>
       </c>
-      <c r="V4" s="30">
-        <v>1</v>
-      </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="V4" s="23">
+        <v>1</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26">
         <v>4</v>
       </c>
-      <c r="D5" s="33">
-        <v>5</v>
-      </c>
-      <c r="E5" s="33">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="D5" s="26">
+        <v>5</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
         <v>1.8</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="27">
         <v>549</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="23">
         <v>4</v>
       </c>
-      <c r="I5" s="30">
-        <v>5</v>
-      </c>
-      <c r="J5" s="30">
-        <v>3</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="I5" s="23">
+        <v>5</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3</v>
+      </c>
+      <c r="K5" s="23">
         <v>1.8</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="24">
         <v>-549</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="23">
         <v>1.5</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="23">
         <v>1.5</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="23">
         <v>1.8</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="23">
         <v>1.8</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="23">
         <v>1.7</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="23">
         <v>1.8</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="23">
         <v>1.8</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="23">
         <v>1.8</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33">
-        <v>5</v>
-      </c>
-      <c r="E6" s="33">
-        <v>3</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="C6" s="26">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
         <v>1.8</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="27">
         <v>374</v>
       </c>
-      <c r="H6" s="30">
-        <v>5</v>
-      </c>
-      <c r="I6" s="30">
-        <v>5</v>
-      </c>
-      <c r="J6" s="30">
-        <v>3</v>
-      </c>
-      <c r="K6" s="30">
+      <c r="H6" s="23">
+        <v>5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
+      <c r="J6" s="23">
+        <v>3</v>
+      </c>
+      <c r="K6" s="23">
         <v>1.8</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="24">
         <v>-374</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="23">
         <v>-329</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="23">
         <v>-600</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="23">
         <v>-549</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="23">
         <v>-549</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="23">
         <v>-374</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="23">
         <v>-1310</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="23">
         <v>-399</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="23">
         <v>-499</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="23">
         <v>-349</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33">
-        <v>5</v>
-      </c>
-      <c r="D7" s="33">
-        <v>5</v>
-      </c>
-      <c r="E7" s="33">
-        <v>3</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="B7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
         <v>1.7</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="27">
         <v>1310</v>
       </c>
-      <c r="H7" s="30">
-        <v>5</v>
-      </c>
-      <c r="I7" s="30">
-        <v>5</v>
-      </c>
-      <c r="J7" s="30">
-        <v>3</v>
-      </c>
-      <c r="K7" s="30">
+      <c r="H7" s="23">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23">
+        <v>5</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3</v>
+      </c>
+      <c r="K7" s="23">
         <v>1.7</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="24">
         <v>-1310</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="33">
-        <v>5</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="26">
+        <v>5</v>
+      </c>
+      <c r="D8" s="26">
         <v>4</v>
       </c>
-      <c r="E8" s="33">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="26">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26">
         <v>1.8</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="27">
         <v>399</v>
       </c>
-      <c r="H8" s="30">
-        <v>5</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="H8" s="23">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23">
         <v>4</v>
       </c>
-      <c r="J8" s="30">
-        <v>3</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="J8" s="23">
+        <v>3</v>
+      </c>
+      <c r="K8" s="23">
         <v>1.8</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="24">
         <v>-399</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33">
-        <v>5</v>
-      </c>
-      <c r="D9" s="33">
-        <v>5</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="C9" s="26">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26">
         <v>4</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="26">
         <v>1.8</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="27">
         <v>499</v>
       </c>
-      <c r="H9" s="30">
-        <v>5</v>
-      </c>
-      <c r="I9" s="30">
-        <v>5</v>
-      </c>
-      <c r="J9" s="30">
+      <c r="H9" s="23">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23">
         <v>4</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="23">
         <v>1.8</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="24">
         <v>-499</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <v>4</v>
       </c>
-      <c r="D10" s="33">
-        <v>3</v>
-      </c>
-      <c r="E10" s="33">
-        <v>1</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="D10" s="26">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
         <v>1.8</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="27">
         <v>349</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="23">
         <v>4</v>
       </c>
-      <c r="I10" s="30">
-        <v>3</v>
-      </c>
-      <c r="J10" s="30">
-        <v>1</v>
-      </c>
-      <c r="K10" s="30">
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23">
         <v>1.8</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="24">
         <v>-349</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-    </row>
-    <row r="14" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-    </row>
-    <row r="15" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+    </row>
+    <row r="14" spans="1:28" ht="17" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+    </row>
+    <row r="15" spans="1:28" s="14" customFormat="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="39">
-        <v>1</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="39">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
         <v>-1</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="33">
         <v>1000</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="33">
         <v>1000</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="33">
         <v>2</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="33">
         <v>0.5</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="41">
         <v>300</v>
       </c>
-      <c r="M15" s="39">
-        <v>1</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28" t="s">
+      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="52" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-    </row>
-    <row r="18" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="30" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="1:28" ht="17" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="30" t="s">
+      <c r="Q18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="30" t="s">
+      <c r="S18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="30" t="s">
+      <c r="U18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="35" cm="1">
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" cm="1">
         <f t="array" ref="N19">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="35" cm="1">
+      <c r="O19" cm="1">
         <f t="array" ref="O19">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="35" cm="1">
+      <c r="P19" cm="1">
         <f t="array" ref="P19">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="35" cm="1">
+      <c r="Q19" cm="1">
         <f t="array" ref="Q19">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="35" cm="1">
+      <c r="R19" cm="1">
         <f t="array" ref="R19">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="35" cm="1">
+      <c r="S19" cm="1">
         <f t="array" ref="S19">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="35" cm="1">
+      <c r="T19" cm="1">
         <f t="array" ref="T19">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="35" cm="1">
+      <c r="U19" cm="1">
         <f t="array" ref="U19">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="35" cm="1">
+      <c r="V19" cm="1">
         <f t="array" ref="V19">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H2:$L2-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="35"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="35" cm="1">
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" cm="1">
         <f t="array" ref="N20">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="35" cm="1">
+      <c r="O20" cm="1">
         <f t="array" ref="O20">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="35" cm="1">
+      <c r="P20" cm="1">
         <f t="array" ref="P20">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="35" cm="1">
+      <c r="Q20" cm="1">
         <f t="array" ref="Q20">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="35" cm="1">
+      <c r="R20" cm="1">
         <f t="array" ref="R20">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="35" cm="1">
+      <c r="S20" cm="1">
         <f t="array" ref="S20">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="35" cm="1">
+      <c r="T20" cm="1">
         <f t="array" ref="T20">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="35" cm="1">
+      <c r="U20" cm="1">
         <f t="array" ref="U20">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="35" cm="1">
+      <c r="V20" cm="1">
         <f t="array" ref="V20">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H3:$L3-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="35"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="43" t="s">
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="N21" s="35" cm="1">
+      <c r="N21" cm="1">
         <f t="array" ref="N21">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="35" cm="1">
+      <c r="O21" cm="1">
         <f t="array" ref="O21">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="35" cm="1">
+      <c r="P21" cm="1">
         <f t="array" ref="P21">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="35" cm="1">
+      <c r="Q21" cm="1">
         <f t="array" ref="Q21">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="35" cm="1">
+      <c r="R21" cm="1">
         <f t="array" ref="R21">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="35" cm="1">
+      <c r="S21" cm="1">
         <f t="array" ref="S21">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="35" cm="1">
+      <c r="T21" cm="1">
         <f t="array" ref="T21">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U21" s="35" cm="1">
+      <c r="U21" cm="1">
         <f t="array" ref="U21">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="35" cm="1">
+      <c r="V21" cm="1">
         <f t="array" ref="V21">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H4:$L4-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="35"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="35" cm="1">
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" cm="1">
         <f t="array" ref="N22">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="35" cm="1">
+      <c r="O22" cm="1">
         <f t="array" ref="O22">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="35" cm="1">
+      <c r="P22" cm="1">
         <f t="array" ref="P22">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="35" cm="1">
+      <c r="Q22" cm="1">
         <f t="array" ref="Q22">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="35" cm="1">
+      <c r="R22" cm="1">
         <f t="array" ref="R22">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="35" cm="1">
+      <c r="S22" cm="1">
         <f t="array" ref="S22">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="35" cm="1">
+      <c r="T22" cm="1">
         <f t="array" ref="T22">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U22" s="35" cm="1">
+      <c r="U22" cm="1">
         <f t="array" ref="U22">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="35" cm="1">
+      <c r="V22" cm="1">
         <f t="array" ref="V22">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H5:$L5-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="43" t="s">
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="35" cm="1">
+      <c r="N23" cm="1">
         <f t="array" ref="N23">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="35" cm="1">
+      <c r="O23" cm="1">
         <f t="array" ref="O23">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="35" cm="1">
+      <c r="P23" cm="1">
         <f t="array" ref="P23">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="35" cm="1">
+      <c r="Q23" cm="1">
         <f t="array" ref="Q23">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="35" cm="1">
+      <c r="R23" cm="1">
         <f t="array" ref="R23">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="35" cm="1">
+      <c r="S23" cm="1">
         <f t="array" ref="S23">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="35" cm="1">
+      <c r="T23" cm="1">
         <f t="array" ref="T23">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="35" cm="1">
+      <c r="U23" cm="1">
         <f t="array" ref="U23">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="35" cm="1">
+      <c r="V23" cm="1">
         <f t="array" ref="V23">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H6:$L6-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="35"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="35" cm="1">
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" cm="1">
         <f t="array" ref="N24">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O24" s="35" cm="1">
+      <c r="O24" cm="1">
         <f t="array" ref="O24">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P24" s="35" cm="1">
+      <c r="P24" cm="1">
         <f t="array" ref="P24">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="35" cm="1">
+      <c r="Q24" cm="1">
         <f t="array" ref="Q24">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="35" cm="1">
+      <c r="R24" cm="1">
         <f t="array" ref="R24">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="35" cm="1">
+      <c r="S24" cm="1">
         <f t="array" ref="S24">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="35" cm="1">
+      <c r="T24" cm="1">
         <f t="array" ref="T24">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U24" s="35" cm="1">
+      <c r="U24" cm="1">
         <f t="array" ref="U24">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="V24" s="35" cm="1">
+      <c r="V24" cm="1">
         <f t="array" ref="V24">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H7:$L7-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="W24" s="35"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="43" t="s">
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="35" cm="1">
+      <c r="N25" cm="1">
         <f t="array" ref="N25">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="35" cm="1">
+      <c r="O25" cm="1">
         <f t="array" ref="O25">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="35" cm="1">
+      <c r="P25" cm="1">
         <f t="array" ref="P25">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="35" cm="1">
+      <c r="Q25" cm="1">
         <f t="array" ref="Q25">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="35" cm="1">
+      <c r="R25" cm="1">
         <f t="array" ref="R25">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="35" cm="1">
+      <c r="S25" cm="1">
         <f t="array" ref="S25">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="35" cm="1">
+      <c r="T25" cm="1">
         <f t="array" ref="T25">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="35" cm="1">
+      <c r="U25" cm="1">
         <f t="array" ref="U25">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="35" cm="1">
+      <c r="V25" cm="1">
         <f t="array" ref="V25">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H8:$L8-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="35"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="43" t="s">
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="35" cm="1">
+      <c r="N26" cm="1">
         <f t="array" ref="N26">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="35" cm="1">
+      <c r="O26" cm="1">
         <f t="array" ref="O26">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="35" cm="1">
+      <c r="P26" cm="1">
         <f t="array" ref="P26">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="35" cm="1">
+      <c r="Q26" cm="1">
         <f t="array" ref="Q26">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="35" cm="1">
+      <c r="R26" cm="1">
         <f t="array" ref="R26">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="35" cm="1">
+      <c r="S26" cm="1">
         <f t="array" ref="S26">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="35" cm="1">
+      <c r="T26" cm="1">
         <f t="array" ref="T26">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="35" cm="1">
+      <c r="U26" cm="1">
         <f t="array" ref="U26">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="35" cm="1">
+      <c r="V26" cm="1">
         <f t="array" ref="V26">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H9:$L9-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="35"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="43" t="s">
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="35" cm="1">
+      <c r="N27" cm="1">
         <f t="array" ref="N27">IF(SUM(IF(TRANSPOSE(N$2:N$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O27" s="35" cm="1">
+      <c r="O27" cm="1">
         <f t="array" ref="O27">IF(SUM(IF(TRANSPOSE(O$2:O$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P27" s="35" cm="1">
+      <c r="P27" cm="1">
         <f t="array" ref="P27">IF(SUM(IF(TRANSPOSE(P$2:P$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="35" cm="1">
+      <c r="Q27" cm="1">
         <f t="array" ref="Q27">IF(SUM(IF(TRANSPOSE(Q$2:Q$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="35" cm="1">
+      <c r="R27" cm="1">
         <f t="array" ref="R27">IF(SUM(IF(TRANSPOSE(R$2:R$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="35" cm="1">
+      <c r="S27" cm="1">
         <f t="array" ref="S27">IF(SUM(IF(TRANSPOSE(S$2:S$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="35" cm="1">
+      <c r="T27" cm="1">
         <f t="array" ref="T27">IF(SUM(IF(TRANSPOSE(T$2:T$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="35" cm="1">
+      <c r="U27" cm="1">
         <f t="array" ref="U27">IF(SUM(IF(TRANSPOSE(U$2:U$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="35" cm="1">
+      <c r="V27" cm="1">
         <f t="array" ref="V27">IF(SUM(IF(TRANSPOSE(V$2:V$6)-$H10:$L10-$H$15:$L$15&gt;0,1,0))&gt;=$M$15,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W27" s="35"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N19:W27">
@@ -11354,770 +11617,769 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="39.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.83203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="36"/>
+    <col min="24" max="24" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="30" t="s">
+      <c r="Q1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="30" t="s">
+      <c r="S1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33">
+    <row r="2" spans="1:24">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
         <v>4</v>
       </c>
-      <c r="D2" s="33">
-        <v>3</v>
-      </c>
-      <c r="E2" s="33">
-        <v>5</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="D2" s="26">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
         <v>1.5</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="27">
         <v>329</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="23">
         <v>4</v>
       </c>
-      <c r="I2" s="30">
-        <v>3</v>
-      </c>
-      <c r="J2" s="30">
-        <v>5</v>
-      </c>
-      <c r="K2" s="30">
+      <c r="I2" s="23">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23">
+        <v>5</v>
+      </c>
+      <c r="K2" s="23">
         <v>1.5</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="23">
         <v>-329</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="23">
         <v>4</v>
       </c>
-      <c r="O2" s="30">
-        <v>5</v>
-      </c>
-      <c r="P2" s="30">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="30">
+      <c r="O2" s="23">
+        <v>5</v>
+      </c>
+      <c r="P2" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="23">
         <v>4</v>
       </c>
-      <c r="R2" s="30">
-        <v>5</v>
-      </c>
-      <c r="S2" s="30">
-        <v>5</v>
-      </c>
-      <c r="T2" s="30">
-        <v>5</v>
-      </c>
-      <c r="U2" s="30">
-        <v>5</v>
-      </c>
-      <c r="V2" s="30">
+      <c r="R2" s="23">
+        <v>5</v>
+      </c>
+      <c r="S2" s="23">
+        <v>5</v>
+      </c>
+      <c r="T2" s="23">
+        <v>5</v>
+      </c>
+      <c r="U2" s="23">
+        <v>5</v>
+      </c>
+      <c r="V2" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+    <row r="3" spans="1:24">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33">
-        <v>5</v>
-      </c>
-      <c r="D3" s="33">
-        <v>3</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26">
         <v>4</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="26">
         <v>1.5</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="27">
         <v>600</v>
       </c>
-      <c r="H3" s="30">
-        <v>5</v>
-      </c>
-      <c r="I3" s="30">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30">
+      <c r="H3" s="23">
+        <v>5</v>
+      </c>
+      <c r="I3" s="23">
+        <v>3</v>
+      </c>
+      <c r="J3" s="23">
         <v>4</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="23">
         <v>1.5</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="23">
         <v>-600</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="30">
-        <v>3</v>
-      </c>
-      <c r="O3" s="30">
-        <v>3</v>
-      </c>
-      <c r="P3" s="30">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="30">
-        <v>5</v>
-      </c>
-      <c r="R3" s="30">
-        <v>5</v>
-      </c>
-      <c r="S3" s="30">
-        <v>5</v>
-      </c>
-      <c r="T3" s="30">
+      <c r="N3" s="23">
+        <v>3</v>
+      </c>
+      <c r="O3" s="23">
+        <v>3</v>
+      </c>
+      <c r="P3" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>5</v>
+      </c>
+      <c r="R3" s="23">
+        <v>5</v>
+      </c>
+      <c r="S3" s="23">
+        <v>5</v>
+      </c>
+      <c r="T3" s="23">
         <v>4</v>
       </c>
-      <c r="U3" s="30">
-        <v>5</v>
-      </c>
-      <c r="V3" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="U3" s="23">
+        <v>5</v>
+      </c>
+      <c r="V3" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
-        <v>5</v>
-      </c>
-      <c r="D4" s="33">
-        <v>3</v>
-      </c>
-      <c r="E4" s="33">
-        <v>3</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="C4" s="26">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="27">
         <v>549</v>
       </c>
-      <c r="H4" s="30">
-        <v>5</v>
-      </c>
-      <c r="I4" s="30">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30">
-        <v>3</v>
-      </c>
-      <c r="K4" s="30">
+      <c r="H4" s="23">
+        <v>5</v>
+      </c>
+      <c r="I4" s="23">
+        <v>3</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3</v>
+      </c>
+      <c r="K4" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="23">
         <v>-549</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="30">
-        <v>5</v>
-      </c>
-      <c r="O4" s="30">
+      <c r="N4" s="23">
+        <v>5</v>
+      </c>
+      <c r="O4" s="23">
         <v>4</v>
       </c>
-      <c r="P4" s="30">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>3</v>
-      </c>
-      <c r="R4" s="30">
-        <v>3</v>
-      </c>
-      <c r="S4" s="30">
-        <v>3</v>
-      </c>
-      <c r="T4" s="30">
-        <v>3</v>
-      </c>
-      <c r="U4" s="30">
+      <c r="P4" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>3</v>
+      </c>
+      <c r="R4" s="23">
+        <v>3</v>
+      </c>
+      <c r="S4" s="23">
+        <v>3</v>
+      </c>
+      <c r="T4" s="23">
+        <v>3</v>
+      </c>
+      <c r="U4" s="23">
         <v>4</v>
       </c>
-      <c r="V4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="V4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26">
         <v>4</v>
       </c>
-      <c r="D5" s="33">
-        <v>5</v>
-      </c>
-      <c r="E5" s="33">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="D5" s="26">
+        <v>5</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
         <v>1.8</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="27">
         <v>549</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="23">
         <v>4</v>
       </c>
-      <c r="I5" s="30">
-        <v>5</v>
-      </c>
-      <c r="J5" s="30">
-        <v>3</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="I5" s="23">
+        <v>5</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3</v>
+      </c>
+      <c r="K5" s="23">
         <v>1.8</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="23">
         <v>-549</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="23">
         <v>1.5</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="23">
         <v>1.5</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="23">
         <v>1.8</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="23">
         <v>1.8</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="23">
         <v>1.7</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="23">
         <v>1.8</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="23">
         <v>1.8</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="23">
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33">
-        <v>5</v>
-      </c>
-      <c r="E6" s="33">
-        <v>3</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="C6" s="26">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
         <v>1.8</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="27">
         <v>374</v>
       </c>
-      <c r="H6" s="30">
-        <v>5</v>
-      </c>
-      <c r="I6" s="30">
-        <v>5</v>
-      </c>
-      <c r="J6" s="30">
-        <v>3</v>
-      </c>
-      <c r="K6" s="30">
+      <c r="H6" s="23">
+        <v>5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
+      <c r="J6" s="23">
+        <v>3</v>
+      </c>
+      <c r="K6" s="23">
         <v>1.8</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="23">
         <v>-374</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="23">
         <v>-329</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="23">
         <v>-600</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="23">
         <v>-549</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="23">
         <v>-549</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="23">
         <v>-374</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="23">
         <v>-1310</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="23">
         <v>-399</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="23">
         <v>-499</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="23">
         <v>-349</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+    <row r="7" spans="1:24">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33">
-        <v>5</v>
-      </c>
-      <c r="D7" s="33">
-        <v>5</v>
-      </c>
-      <c r="E7" s="33">
-        <v>3</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="B7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
         <v>1.7</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="27">
         <v>1310</v>
       </c>
-      <c r="H7" s="30">
-        <v>5</v>
-      </c>
-      <c r="I7" s="30">
-        <v>5</v>
-      </c>
-      <c r="J7" s="30">
-        <v>3</v>
-      </c>
-      <c r="K7" s="30">
+      <c r="H7" s="23">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23">
+        <v>5</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3</v>
+      </c>
+      <c r="K7" s="23">
         <v>1.7</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="23">
         <v>-1310</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="M7" s="34"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="33">
-        <v>5</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="26">
+        <v>5</v>
+      </c>
+      <c r="D8" s="26">
         <v>4</v>
       </c>
-      <c r="E8" s="33">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="26">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26">
         <v>1.8</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="27">
         <v>399</v>
       </c>
-      <c r="H8" s="30">
-        <v>5</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="H8" s="23">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23">
         <v>4</v>
       </c>
-      <c r="J8" s="30">
-        <v>3</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="J8" s="23">
+        <v>3</v>
+      </c>
+      <c r="K8" s="23">
         <v>1.8</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="23">
         <v>-399</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="M8" s="34"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33">
-        <v>5</v>
-      </c>
-      <c r="D9" s="33">
-        <v>5</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="C9" s="26">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26">
         <v>4</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="26">
         <v>1.8</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="27">
         <v>499</v>
       </c>
-      <c r="H9" s="30">
-        <v>5</v>
-      </c>
-      <c r="I9" s="30">
-        <v>5</v>
-      </c>
-      <c r="J9" s="30">
+      <c r="H9" s="23">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23">
         <v>4</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="23">
         <v>1.8</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="23">
         <v>-499</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="M9" s="34"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <v>4</v>
       </c>
-      <c r="D10" s="33">
-        <v>3</v>
-      </c>
-      <c r="E10" s="33">
-        <v>1</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="D10" s="26">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
         <v>1.8</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="27">
         <v>349</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="23">
         <v>4</v>
       </c>
-      <c r="I10" s="30">
-        <v>3</v>
-      </c>
-      <c r="J10" s="30">
-        <v>1</v>
-      </c>
-      <c r="K10" s="30">
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23">
         <v>1.8</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="23">
         <v>-349</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-    </row>
-    <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="1:24" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44" t="s">
+      <c r="M10" s="34"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:24" ht="17" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" spans="1:24" s="19" customFormat="1" ht="17" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="44">
-        <v>1</v>
-      </c>
-      <c r="F15" s="44">
-        <v>1</v>
-      </c>
-      <c r="G15" s="45">
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
         <v>-1</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="X15" s="47"/>
-    </row>
-    <row r="16" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="X16" s="36"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C17" s="28" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="C17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18:B26">B2:B10</f>
         <v>BEKO CEG3190B</v>
@@ -12162,7 +12424,7 @@
       <c r="V18" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
-      <c r="X18" s="36" t="s">
+      <c r="X18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="Y18" t="s">
@@ -12175,7 +12437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
@@ -12188,7 +12450,7 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="M19" s="36" t="str" cm="1">
+      <c r="M19" s="28" t="str" cm="1">
         <f t="array" ref="M19:M27">B2:B10</f>
         <v>BEKO CEG3190B</v>
       </c>
@@ -12228,7 +12490,7 @@
         <f>IF(AND(Concordance!V19,NOT(Discordance!V19)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="28">
         <f>SUM(N19:V19)</f>
         <v>3</v>
       </c>
@@ -12245,7 +12507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28">
       <c r="B20" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
@@ -12258,7 +12520,7 @@
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="M20" s="36" t="str">
+      <c r="M20" s="28" t="str">
         <v>MELITTA LATTICIA OT F300-100</v>
       </c>
       <c r="N20">
@@ -12297,7 +12559,7 @@
         <f>IF(AND(Concordance!V20,NOT(Discordance!V20)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X20" s="36">
+      <c r="X20" s="28">
         <f t="shared" ref="X20:X27" si="0">SUM(N20:V20)</f>
         <v>1</v>
       </c>
@@ -12313,7 +12575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28">
       <c r="B21" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
@@ -12326,7 +12588,7 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="M21" s="36" t="str">
+      <c r="M21" s="28" t="str">
         <v>KRUPS EVIDENCE ECO BLACK EA897B</v>
       </c>
       <c r="N21">
@@ -12365,7 +12627,7 @@
         <f>IF(AND(Concordance!V21,NOT(Discordance!V21)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -12381,7 +12643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28">
       <c r="B22" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
@@ -12394,7 +12656,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="M22" s="36" t="str">
+      <c r="M22" s="28" t="str">
         <v>PHILIPS EP3246/70</v>
       </c>
       <c r="N22">
@@ -12433,7 +12695,7 @@
         <f>IF(AND(Concordance!V22,NOT(Discordance!V22)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="36">
+      <c r="X22" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -12449,7 +12711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28">
       <c r="B23" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
@@ -12462,7 +12724,7 @@
       <c r="E23">
         <v>9</v>
       </c>
-      <c r="M23" s="36" t="str">
+      <c r="M23" s="28" t="str">
         <v>DELONGHI MAGNIFICA EVO ECAM290.21</v>
       </c>
       <c r="N23">
@@ -12501,7 +12763,7 @@
         <f>IF(AND(Concordance!V23,NOT(Discordance!V23)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -12517,7 +12779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28">
       <c r="B24" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
@@ -12530,7 +12792,7 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="M24" s="36" t="str">
+      <c r="M24" s="28" t="str">
         <v>SAECO XELSIS DELUXE SM8785/00</v>
       </c>
       <c r="N24">
@@ -12569,7 +12831,7 @@
         <f>IF(AND(Concordance!V24,NOT(Discordance!V24)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="36">
+      <c r="X24" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12585,7 +12847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28">
       <c r="B25" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
@@ -12598,7 +12860,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="M25" s="36" t="str">
+      <c r="M25" s="28" t="str">
         <v>DELONGHI MAGNIFICA START ECAM220.31.SB</v>
       </c>
       <c r="N25">
@@ -12637,7 +12899,7 @@
         <f>IF(AND(Concordance!V25,NOT(Discordance!V25)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X25" s="36">
+      <c r="X25" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -12653,7 +12915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28">
       <c r="B26" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
@@ -12666,7 +12928,7 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="M26" s="36" t="str">
+      <c r="M26" s="28" t="str">
         <v>DELONGHI MAGNIFICA ECAMI3.123.B</v>
       </c>
       <c r="N26">
@@ -12705,7 +12967,7 @@
         <f>IF(AND(Concordance!V26,NOT(Discordance!V26)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="X26" s="36">
+      <c r="X26" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -12721,8 +12983,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M27" s="36" t="str">
+    <row r="27" spans="2:28">
+      <c r="M27" s="28" t="str">
         <v>QILIVE Q.5404 (600094159)</v>
       </c>
       <c r="N27">
@@ -12761,7 +13023,7 @@
         <f>IF(AND(Concordance!V27,NOT(Discordance!V27)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="X27" s="36">
+      <c r="X27" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12777,9 +13039,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M29" s="37" t="s">
+    <row r="28" spans="2:28" ht="17" thickBot="1"/>
+    <row r="29" spans="2:28" s="14" customFormat="1">
+      <c r="M29" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="14">
@@ -12818,10 +13080,10 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="X29" s="37"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="M30" s="36" t="s">
+      <c r="X29" s="29"/>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="M30" s="28" t="s">
         <v>31</v>
       </c>
       <c r="N30">

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingri\Ma1\AMCD\projetaidmulticrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61878F3A-C5E0-0B45-87A9-2508A63B29FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE0E71-74D3-42A5-ABAB-1E3AB9235540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominance" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
   <si>
     <t>BEKO CEG3190B</t>
   </si>
@@ -180,12 +180,21 @@
   <si>
     <t>=&gt; PQ ? Car on veut avoir 0,3 et 0,3 absolument et soit mousse et température ou capacité du reservoir'</t>
   </si>
+  <si>
+    <t>poids</t>
+  </si>
+  <si>
+    <t>Normalisat°</t>
+  </si>
+  <si>
+    <t>Utilité Additive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +247,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Damascus Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="8">
@@ -562,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -608,7 +623,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -621,6 +635,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +676,7 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color theme="5"/>
       </font>
     </dxf>
   </dxfs>
@@ -2074,31 +2093,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>97.251135786818494</c:v>
+                  <c:v>70.899645951661682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.811743989590497</c:v>
+                  <c:v>50.73981964406417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.790749292928581</c:v>
+                  <c:v>55.3488698183574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.807514409823796</c:v>
+                  <c:v>42.365634935252615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.389096446542354</c:v>
+                  <c:v>41.246390548778066</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>63.702909919003439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.71754981465763</c:v>
+                  <c:v>41.246390548778066</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.899583363515632</c:v>
+                  <c:v>60.11461062517499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.443447312107772</c:v>
+                  <c:v>4.6291947824587503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,22 +5571,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AD970-769F-5440-BD83-72826FE4EE68}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="D1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" customWidth="1"/>
+    <col min="13" max="15" width="15.19921875" customWidth="1"/>
+    <col min="16" max="18" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6579,6 +6594,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6586,20 +6602,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+    <sheetView topLeftCell="B1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="9"/>
-    <col min="13" max="13" width="10.83203125" style="28"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -6630,8 +6651,15 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6673,16 +6701,15 @@
         <f t="shared" ref="L2:L18" ca="1" si="3">_xlfn.FORECAST.LINEAR(G2,OFFSET(L$26:L$27,MATCH(G2,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G2,G$26:G$27,1)-1,0,2))</f>
         <v>100</v>
       </c>
-      <c r="M2" s="28" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">MMULT(H2:K2,TRANSPOSE(H$19:K$19))</f>
-        <v>97.251135786818494</v>
+      <c r="M2" s="28">
+        <v>70.899645951661682</v>
       </c>
       <c r="N2">
-        <f ca="1">RANK(M2,M$2:M$10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <f>RANK(M2,M$2:M$10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6724,16 +6751,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>72.375127420998979</v>
       </c>
-      <c r="M3" s="28" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">MMULT(H3:K3,TRANSPOSE(H$19:K$19))</f>
-        <v>69.811743989590497</v>
+      <c r="M3" s="28">
+        <v>50.73981964406417</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" ca="1" si="5">RANK(M3,M$2:M$10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <f t="shared" ref="N3:N10" si="5">RANK(M3,M$2:M$10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6775,16 +6801,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M4" s="28" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">MMULT(H4:K4,TRANSPOSE(H$19:K$19))</f>
-        <v>75.790749292928581</v>
+      <c r="M4" s="28">
+        <v>55.3488698183574</v>
       </c>
       <c r="N4">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6826,16 +6851,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M5" s="28" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">MMULT(H5:K5,TRANSPOSE(H$19:K$19))</f>
-        <v>62.807514409823796</v>
+      <c r="M5" s="28">
+        <v>42.365634935252615</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6877,16 +6901,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>95.412844036697251</v>
       </c>
-      <c r="M6" s="28" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">MMULT(H6:K6,TRANSPOSE(H$19:K$19))</f>
-        <v>66.389096446542354</v>
+      <c r="M6" s="28">
+        <v>41.246390548778066</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6928,16 +6951,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="28" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">MMULT(H7:K7,TRANSPOSE(H$19:K$19))</f>
+      <c r="M7" s="28">
         <v>63.702909919003439</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6979,16 +7001,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>92.864424057084619</v>
       </c>
-      <c r="M8" s="28" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">MMULT(H8:K8,TRANSPOSE(H$19:K$19))</f>
-        <v>65.71754981465763</v>
+      <c r="M8" s="28">
+        <v>41.246390548778066</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7027,19 +7048,18 @@
         <v>44.444444444444429</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G9,OFFSET(L$26:L$27,MATCH(G9,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G9,G$26:G$27,1)-1,0,2))</f>
         <v>82.670744138634049</v>
       </c>
-      <c r="M9" s="28" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">MMULT(H9:K9,TRANSPOSE(H$19:K$19))</f>
-        <v>81.899583363515632</v>
+      <c r="M9" s="28">
+        <v>60.11461062517499</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.2" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7081,16 +7101,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>97.961264016309883</v>
       </c>
-      <c r="M10" s="28" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">MMULT(H10:K10,TRANSPOSE(H$19:K$19))</f>
-        <v>30.443447312107772</v>
+      <c r="M10" s="28">
+        <v>4.6291947824587503</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1">
+    <row r="11" spans="1:15" s="14" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -7115,7 +7134,7 @@
       </c>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="16"/>
@@ -7139,7 +7158,7 @@
         <v>67.278287461773701</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="16"/>
@@ -7163,7 +7182,7 @@
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16"/>
@@ -7187,7 +7206,7 @@
         <v>82.568807339449535</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16"/>
@@ -7211,7 +7230,7 @@
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="16"/>
@@ -7259,7 +7278,7 @@
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1">
+    <row r="18" spans="1:15" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -7290,7 +7309,9 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="60" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" s="14">
         <f ca="1">H20/SUM($H20:$L20)</f>
         <v>0.17907910183592804</v>
@@ -7314,7 +7335,9 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="G20" s="10"/>
+      <c r="G20" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="H20">
         <f ca="1">(L17-L18)/(H17-H18)</f>
         <v>-0.67957866123003752</v>
@@ -7335,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="20" customFormat="1" ht="17" thickBot="1">
+    <row r="21" spans="1:15" s="20" customFormat="1" ht="16.2" thickBot="1">
       <c r="G21" s="21"/>
       <c r="M21" s="40"/>
     </row>
@@ -7461,7 +7484,7 @@
         <v>9</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O35" si="7">(N25-1)*100/$N$26</f>
+        <f>(N25-1)*100/$N$26</f>
         <v>100</v>
       </c>
     </row>
@@ -7500,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f>(N26-1)*100/$N$26</f>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -7539,7 +7562,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f>(N27-1)*100/$N$26</f>
         <v>77.777777777777771</v>
       </c>
     </row>
@@ -7572,7 +7595,7 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f>(N28-1)*100/$N$26</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -7605,7 +7628,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
+        <f>(N29-1)*100/$N$26</f>
         <v>55.555555555555557</v>
       </c>
     </row>
@@ -7638,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
+        <f>(N30-1)*100/$N$26</f>
         <v>44.444444444444443</v>
       </c>
     </row>
@@ -7653,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
+        <f>(N31-1)*100/$N$26</f>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -7668,7 +7691,7 @@
         <v>2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
+        <f>(N32-1)*100/$N$26</f>
         <v>22.222222222222221</v>
       </c>
     </row>
@@ -7683,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="7"/>
+        <f>(N33-1)*100/$N$26</f>
         <v>11.111111111111111</v>
       </c>
     </row>
@@ -7698,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
+        <f>(N34-1)*100/$N$26</f>
         <v>0</v>
       </c>
     </row>
@@ -7710,672 +7733,694 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:15" ht="18">
-      <c r="C37" s="48" t="s">
+    <row r="37" spans="3:15">
+      <c r="C37" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="3:15" ht="18">
-      <c r="C38" s="47">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="46">
         <v>550</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="46">
         <v>1.5</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="46">
         <v>650</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="46">
         <v>1.6</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47">
+      <c r="G38" s="46"/>
+      <c r="H38" s="46">
         <v>650</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="46">
         <v>2.5</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="46">
         <v>550</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="46">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:15" ht="18">
-      <c r="C39" s="46">
+    <row r="39" spans="3:15">
+      <c r="C39" s="45">
         <v>550</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="45">
         <v>1.6</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="45">
         <v>650</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="45">
         <v>1.65</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46">
+      <c r="G39" s="45"/>
+      <c r="H39" s="45">
         <v>650</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="45">
         <v>550</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="45">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="40" spans="3:15" ht="18">
-      <c r="C40" s="46">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="45">
         <v>550</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="45">
         <v>1.65</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>650</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="45">
         <v>1.8</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46">
+      <c r="G40" s="45"/>
+      <c r="H40" s="45">
         <v>650</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="45">
         <v>2.1</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="45">
         <v>550</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="45">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="3:15" ht="18">
-      <c r="C41" s="46">
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="45">
         <v>550</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="45">
         <v>1.8</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="45">
         <v>650</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="45">
         <v>1.9</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46">
+      <c r="G41" s="45"/>
+      <c r="H41" s="45">
         <v>650</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="45">
         <v>2</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="45">
         <v>550</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="45">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="42" spans="3:15" ht="18">
-      <c r="C42" s="46">
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="45">
         <v>550</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="45">
         <v>1.9</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="45">
         <v>650</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="45">
         <v>2.1</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46">
+      <c r="G42" s="45"/>
+      <c r="H42" s="45">
         <v>650</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="45">
         <v>1.8</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="45">
         <v>550</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="45">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="43" spans="3:15" ht="18">
-      <c r="C43" s="46">
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="45">
         <v>550</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="45">
         <v>2.1</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="45">
         <v>650</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46">
+      <c r="G43" s="45"/>
+      <c r="H43" s="45">
         <v>650</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="45">
         <v>1.7</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="45">
         <v>550</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="45">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="44" spans="3:15" ht="18">
-      <c r="C44" s="51">
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="50">
         <v>550</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="50">
         <v>650</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="50">
         <v>2.4</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51">
+      <c r="G44" s="50"/>
+      <c r="H44" s="50">
         <v>650</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="50">
         <v>1.6</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="50">
         <v>550</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="50">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="45" spans="3:15" ht="18">
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="57"/>
-    </row>
-    <row r="46" spans="3:15" ht="18">
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-    </row>
-    <row r="47" spans="3:15" ht="18">
-      <c r="C47" s="52" t="s">
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-    </row>
-    <row r="48" spans="3:15" ht="18">
-      <c r="C48" s="47">
-        <v>1</v>
-      </c>
-      <c r="D48" s="47">
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="46">
+        <v>1</v>
+      </c>
+      <c r="D48" s="46">
         <v>300</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="46">
         <v>2</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="46">
         <v>400</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="46">
         <v>2</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="46">
         <v>450</v>
       </c>
-      <c r="I48" s="47">
-        <v>1</v>
-      </c>
-      <c r="J48" s="47">
+      <c r="I48" s="46">
+        <v>1</v>
+      </c>
+      <c r="J48" s="46">
         <v>300</v>
       </c>
-      <c r="K48" s="47"/>
-    </row>
-    <row r="49" spans="3:11" ht="18">
-      <c r="C49" s="46">
+      <c r="K48" s="46"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="45">
         <v>2</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="45">
         <v>400</v>
       </c>
-      <c r="E49" s="46">
-        <v>3</v>
-      </c>
-      <c r="F49" s="46">
+      <c r="E49" s="45">
+        <v>3</v>
+      </c>
+      <c r="F49" s="45">
         <v>600</v>
       </c>
-      <c r="G49" s="46">
-        <v>3</v>
-      </c>
-      <c r="H49" s="46">
+      <c r="G49" s="45">
+        <v>3</v>
+      </c>
+      <c r="H49" s="45">
         <v>600</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="45">
         <v>2</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="45">
         <v>450</v>
       </c>
-      <c r="K49" s="46"/>
-    </row>
-    <row r="50" spans="3:11" ht="18">
-      <c r="C50" s="46">
-        <v>3</v>
-      </c>
-      <c r="D50" s="46">
+      <c r="K49" s="45"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="57"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="45">
+        <v>3</v>
+      </c>
+      <c r="D50" s="45">
         <v>600</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="45">
         <v>4</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="45">
         <v>900</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="45">
         <v>4</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="45">
         <v>1000</v>
       </c>
-      <c r="I50" s="46">
-        <v>3</v>
-      </c>
-      <c r="J50" s="46">
+      <c r="I50" s="45">
+        <v>3</v>
+      </c>
+      <c r="J50" s="45">
         <v>600</v>
       </c>
-      <c r="K50" s="46"/>
-    </row>
-    <row r="51" spans="3:11" ht="18">
-      <c r="C51" s="51">
+      <c r="K50" s="45"/>
+      <c r="N50" s="58"/>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="50">
         <v>4</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="50">
         <v>900</v>
       </c>
-      <c r="E51" s="51">
-        <v>5</v>
-      </c>
-      <c r="F51" s="51">
+      <c r="E51" s="50">
+        <v>5</v>
+      </c>
+      <c r="F51" s="50">
         <v>1500</v>
       </c>
-      <c r="G51" s="51">
-        <v>5</v>
-      </c>
-      <c r="H51" s="51">
+      <c r="G51" s="50">
+        <v>5</v>
+      </c>
+      <c r="H51" s="50">
         <v>1500</v>
       </c>
-      <c r="I51" s="51">
+      <c r="I51" s="50">
         <v>4</v>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="50">
         <v>1000</v>
       </c>
-      <c r="K51" s="51"/>
-    </row>
-    <row r="52" spans="3:11" ht="18">
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="57"/>
-    </row>
-    <row r="53" spans="3:11" ht="18">
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54"/>
-    </row>
-    <row r="54" spans="3:11" ht="18">
-      <c r="C54" s="52" t="s">
+      <c r="K51" s="50"/>
+      <c r="N51" s="58"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="56"/>
+      <c r="N52" s="58"/>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="53"/>
+      <c r="N53" s="58"/>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="54"/>
-    </row>
-    <row r="55" spans="3:11" ht="18">
-      <c r="C55" s="47">
-        <v>1</v>
-      </c>
-      <c r="D55" s="47">
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="53"/>
+      <c r="N54" s="58"/>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="C55" s="46">
+        <v>1</v>
+      </c>
+      <c r="D55" s="46">
         <v>200</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="46">
         <v>2</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="46">
         <v>300</v>
       </c>
-      <c r="G55" s="47">
+      <c r="G55" s="46">
         <v>2</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="46">
         <v>400</v>
       </c>
-      <c r="I55" s="47">
-        <v>1</v>
-      </c>
-      <c r="J55" s="47">
+      <c r="I55" s="46">
+        <v>1</v>
+      </c>
+      <c r="J55" s="46">
         <v>300</v>
       </c>
-      <c r="K55" s="47"/>
-    </row>
-    <row r="56" spans="3:11" ht="18">
-      <c r="C56" s="46">
+      <c r="K55" s="46"/>
+      <c r="N55" s="58"/>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="C56" s="45">
         <v>2</v>
       </c>
-      <c r="D56" s="46">
+      <c r="D56" s="45">
         <v>400</v>
       </c>
-      <c r="E56" s="46">
-        <v>3</v>
-      </c>
-      <c r="F56" s="46">
+      <c r="E56" s="45">
+        <v>3</v>
+      </c>
+      <c r="F56" s="45">
         <v>500</v>
       </c>
-      <c r="G56" s="46">
-        <v>3</v>
-      </c>
-      <c r="H56" s="46">
+      <c r="G56" s="45">
+        <v>3</v>
+      </c>
+      <c r="H56" s="45">
         <v>700</v>
       </c>
-      <c r="I56" s="46">
+      <c r="I56" s="45">
         <v>2</v>
       </c>
-      <c r="J56" s="46">
+      <c r="J56" s="45">
         <v>400</v>
       </c>
-      <c r="K56" s="46"/>
-    </row>
-    <row r="57" spans="3:11" ht="18">
-      <c r="C57" s="46">
-        <v>3</v>
-      </c>
-      <c r="D57" s="46">
+      <c r="K56" s="45"/>
+      <c r="N56" s="58"/>
+    </row>
+    <row r="57" spans="3:15">
+      <c r="C57" s="45">
+        <v>3</v>
+      </c>
+      <c r="D57" s="45">
         <v>500</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="45">
         <v>4</v>
       </c>
-      <c r="F57" s="46">
+      <c r="F57" s="45">
         <v>600</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="45">
         <v>4</v>
       </c>
-      <c r="H57" s="46">
+      <c r="H57" s="45">
         <v>900</v>
       </c>
-      <c r="I57" s="46">
-        <v>3</v>
-      </c>
-      <c r="J57" s="46">
+      <c r="I57" s="45">
+        <v>3</v>
+      </c>
+      <c r="J57" s="45">
         <v>700</v>
       </c>
-      <c r="K57" s="46"/>
-    </row>
-    <row r="58" spans="3:11" ht="18">
-      <c r="C58" s="51">
+      <c r="K57" s="45"/>
+    </row>
+    <row r="58" spans="3:15">
+      <c r="C58" s="50">
         <v>4</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="50">
         <v>600</v>
       </c>
-      <c r="E58" s="51">
-        <v>5</v>
-      </c>
-      <c r="F58" s="51">
+      <c r="E58" s="50">
+        <v>5</v>
+      </c>
+      <c r="F58" s="50">
         <v>1500</v>
       </c>
-      <c r="G58" s="51">
-        <v>5</v>
-      </c>
-      <c r="H58" s="51">
+      <c r="G58" s="50">
+        <v>5</v>
+      </c>
+      <c r="H58" s="50">
         <v>1500</v>
       </c>
-      <c r="I58" s="51">
+      <c r="I58" s="50">
         <v>4</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="50">
         <v>900</v>
       </c>
-      <c r="K58" s="51"/>
-    </row>
-    <row r="59" spans="3:11" ht="18">
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="57"/>
-    </row>
-    <row r="60" spans="3:11" ht="18">
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
-    </row>
-    <row r="61" spans="3:11" ht="18">
-      <c r="C61" s="52" t="s">
+      <c r="K58" s="50"/>
+    </row>
+    <row r="59" spans="3:15">
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="56"/>
+    </row>
+    <row r="60" spans="3:15">
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="53"/>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="C61" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54"/>
-    </row>
-    <row r="62" spans="3:11" ht="18">
-      <c r="C62" s="47">
-        <v>1</v>
-      </c>
-      <c r="D62" s="47">
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="53"/>
+    </row>
+    <row r="62" spans="3:15">
+      <c r="C62" s="46">
+        <v>1</v>
+      </c>
+      <c r="D62" s="46">
         <v>300</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="46">
         <v>2</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="46">
         <v>400</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="46">
         <v>2</v>
       </c>
-      <c r="H62" s="47">
+      <c r="H62" s="46">
         <v>400</v>
       </c>
-      <c r="I62" s="47">
-        <v>1</v>
-      </c>
-      <c r="J62" s="47">
+      <c r="I62" s="46">
+        <v>1</v>
+      </c>
+      <c r="J62" s="46">
         <v>300</v>
       </c>
-      <c r="K62" s="47"/>
-    </row>
-    <row r="63" spans="3:11" ht="18">
-      <c r="C63" s="46">
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="3:15">
+      <c r="C63" s="45">
         <v>2</v>
       </c>
-      <c r="D63" s="46">
+      <c r="D63" s="45">
         <v>400</v>
       </c>
-      <c r="E63" s="46">
-        <v>3</v>
-      </c>
-      <c r="F63" s="46">
+      <c r="E63" s="45">
+        <v>3</v>
+      </c>
+      <c r="F63" s="45">
         <v>500</v>
       </c>
-      <c r="G63" s="46">
-        <v>3</v>
-      </c>
-      <c r="H63" s="46">
+      <c r="G63" s="45">
+        <v>3</v>
+      </c>
+      <c r="H63" s="45">
         <v>600</v>
       </c>
-      <c r="I63" s="46">
+      <c r="I63" s="45">
         <v>2</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63" s="45">
         <v>400</v>
       </c>
-      <c r="K63" s="46"/>
-    </row>
-    <row r="64" spans="3:11" ht="18">
-      <c r="C64" s="46">
-        <v>3</v>
-      </c>
-      <c r="D64" s="46">
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="45">
+        <v>3</v>
+      </c>
+      <c r="D64" s="45">
         <v>500</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="45">
         <v>4</v>
       </c>
-      <c r="F64" s="46">
+      <c r="F64" s="45">
         <v>1000</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="45">
         <v>4</v>
       </c>
-      <c r="H64" s="46">
+      <c r="H64" s="45">
         <v>900</v>
       </c>
-      <c r="I64" s="46">
-        <v>3</v>
-      </c>
-      <c r="J64" s="46">
+      <c r="I64" s="45">
+        <v>3</v>
+      </c>
+      <c r="J64" s="45">
         <v>600</v>
       </c>
-      <c r="K64" s="46"/>
-    </row>
-    <row r="65" spans="3:11" ht="18">
-      <c r="C65" s="46">
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="3:11">
+      <c r="C65" s="45">
         <v>4</v>
       </c>
-      <c r="D65" s="46">
+      <c r="D65" s="45">
         <v>1000</v>
       </c>
-      <c r="E65" s="46">
-        <v>5</v>
-      </c>
-      <c r="F65" s="46">
+      <c r="E65" s="45">
+        <v>5</v>
+      </c>
+      <c r="F65" s="45">
         <v>1500</v>
       </c>
-      <c r="G65" s="46">
-        <v>5</v>
-      </c>
-      <c r="H65" s="46">
+      <c r="G65" s="45">
+        <v>5</v>
+      </c>
+      <c r="H65" s="45">
         <v>1500</v>
       </c>
-      <c r="I65" s="46">
+      <c r="I65" s="45">
         <v>4</v>
       </c>
-      <c r="J65" s="46">
+      <c r="J65" s="45">
         <v>900</v>
       </c>
-      <c r="K65" s="46"/>
+      <c r="K65" s="45"/>
     </row>
     <row r="66" spans="3:11">
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
+      <c r="G66"/>
     </row>
     <row r="67" spans="3:11">
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
+      <c r="G67"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
+      <c r="G68"/>
     </row>
     <row r="69" spans="3:11">
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+      <c r="G69"/>
     </row>
     <row r="70" spans="3:11">
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+      <c r="G70"/>
     </row>
     <row r="71" spans="3:11">
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
+      <c r="G71"/>
     </row>
     <row r="72" spans="3:11">
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
+      <c r="G72"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K25:K36">
-    <sortCondition ref="K25:K36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N39:N50">
+    <sortCondition descending="1" ref="N39:N50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8383,13 +8428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863C0C67-8C9F-2A4E-AC76-F4E9B1B5F2AD}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.296875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -8999,7 +9044,7 @@
     <row r="13" spans="1:22">
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1">
+    <row r="14" spans="1:22" ht="16.2" thickBot="1">
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:22" s="14" customFormat="1">
@@ -9461,6 +9506,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9468,13 +9514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1BF91-8CAF-244E-B6BF-FE8B646402AF}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="28"/>
+    <col min="13" max="13" width="10.796875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -10221,7 +10267,7 @@
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
     </row>
-    <row r="14" spans="1:28" ht="17" thickBot="1">
+    <row r="14" spans="1:28" ht="16.2" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -10369,7 +10415,7 @@
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
     </row>
-    <row r="18" spans="1:28" ht="17" thickBot="1">
+    <row r="18" spans="1:28" ht="16.2" thickBot="1">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -11613,18 +11659,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4473C636-8F8B-734A-9EFB-C73EEF4CFCCF}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="13" max="13" width="39.296875" style="28" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.83203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="28"/>
+    <col min="23" max="23" width="2.796875" customWidth="1"/>
+    <col min="24" max="24" width="10.796875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -12293,7 +12339,7 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:24" ht="17" thickBot="1">
+    <row r="14" spans="1:24" ht="16.2" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -12317,7 +12363,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:24" s="19" customFormat="1" ht="17" thickBot="1">
+    <row r="15" spans="1:24" s="19" customFormat="1" ht="16.2" thickBot="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
         <v>26</v>
@@ -12639,7 +12685,7 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="2"/>
+        <f>RANK(AA21,_xlfn.ANCHORARRAY($AA$19),0)</f>
         <v>5</v>
       </c>
     </row>
@@ -13039,7 +13085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="17" thickBot="1"/>
+    <row r="28" spans="2:28" ht="16.2" thickBot="1"/>
     <row r="29" spans="2:28" s="14" customFormat="1">
       <c r="M29" s="29" t="s">
         <v>33</v>

--- a/Café.xlsx
+++ b/Café.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingri\Ma1\AMCD\projetaidmulticrit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noafoucoux/Documents/Cours/ma2/aidmulticrit/projetaidmulticrit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE0E71-74D3-42A5-ABAB-1E3AB9235540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE668DAC-8FCC-444A-BDDC-F3F333249753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{E16892A5-2733-6247-BC2F-556276338AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominance" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -181,13 +181,13 @@
     <t>=&gt; PQ ? Car on veut avoir 0,3 et 0,3 absolument et soit mousse et température ou capacité du reservoir'</t>
   </si>
   <si>
-    <t>poids</t>
+    <t>Utilité Additive</t>
   </si>
   <si>
-    <t>Normalisat°</t>
+    <t>Poids</t>
   </si>
   <si>
-    <t>Utilité Additive</t>
+    <t>norm</t>
   </si>
 </sst>
 </file>
@@ -253,6 +253,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -577,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -635,11 +636,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2093,31 +2092,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70.899645951661682</c:v>
+                  <c:v>80.943165541912734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.73981964406417</c:v>
+                  <c:v>58.206898468528273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.3488698183574</c:v>
+                  <c:v>63.019483297095071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.365634935252615</c:v>
+                  <c:v>54.517203308102289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.246390548778066</c:v>
+                  <c:v>59.941071576942505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.702909919003439</c:v>
+                  <c:v>41.71687419363937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.246390548778066</c:v>
+                  <c:v>59.061525371184644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.11461062517499</c:v>
+                  <c:v>67.899497655980042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6291947824587503</c:v>
+                  <c:v>36.841258738511456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,14 +5574,11 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" customWidth="1"/>
-    <col min="13" max="15" width="15.19921875" customWidth="1"/>
-    <col min="16" max="18" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6602,25 +6598,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41137E64-42F2-044D-BD17-AF19D2ABB3C0}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="4" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -6652,14 +6648,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="61"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6698,18 +6693,19 @@
         <v>-2.8421709430404007E-14</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L18" ca="1" si="3">_xlfn.FORECAST.LINEAR(G2,OFFSET(L$26:L$27,MATCH(G2,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G2,G$26:G$27,1)-1,0,2))</f>
+        <f t="shared" ref="L2:L10" ca="1" si="3">_xlfn.FORECAST.LINEAR(G2,OFFSET(L$26:L$27,MATCH(G2,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G2,G$26:G$27,1)-1,0,2))</f>
         <v>100</v>
       </c>
-      <c r="M2" s="28">
-        <v>70.899645951661682</v>
+      <c r="M2" s="28" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">MMULT(H2:L2,TRANSPOSE(H$19:L$19))</f>
+        <v>80.943165541912734</v>
       </c>
       <c r="N2">
-        <f>RANK(M2,M$2:M$10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <f ca="1">RANK(M2,M$2:M$10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6751,15 +6747,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>72.375127420998979</v>
       </c>
-      <c r="M3" s="28">
-        <v>50.73981964406417</v>
+      <c r="M3" s="28" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">MMULT(H3:L3,TRANSPOSE(H$19:L$19))</f>
+        <v>58.206898468528273</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="5">RANK(M3,M$2:M$10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f t="shared" ref="N3:N10" ca="1" si="5">RANK(M3,M$2:M$10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6801,15 +6798,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M4" s="28">
-        <v>55.3488698183574</v>
+      <c r="M4" s="28" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">MMULT(H4:L4,TRANSPOSE(H$19:L$19))</f>
+        <v>63.019483297095071</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6851,15 +6849,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>77.573904179408771</v>
       </c>
-      <c r="M5" s="28">
-        <v>42.365634935252615</v>
+      <c r="M5" s="28" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">MMULT(H5:L5,TRANSPOSE(H$19:L$19))</f>
+        <v>54.517203308102289</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6898,18 +6897,19 @@
         <v>44.444444444444429</v>
       </c>
       <c r="L6">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G6,OFFSET(L$26:L$27,MATCH(G6,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G6,G$26:G$27,1)-1,0,2))</f>
         <v>95.412844036697251</v>
       </c>
-      <c r="M6" s="28">
-        <v>41.246390548778066</v>
+      <c r="M6" s="28" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">MMULT(H6:L6,TRANSPOSE(H$19:L$19))</f>
+        <v>59.941071576942505</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6951,15 +6951,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="28">
-        <v>63.702909919003439</v>
+      <c r="M7" s="28" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">MMULT(H7:L7,TRANSPOSE(H$19:L$19))</f>
+        <v>41.71687419363937</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7001,15 +7002,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>92.864424057084619</v>
       </c>
-      <c r="M8" s="28">
-        <v>41.246390548778066</v>
+      <c r="M8" s="28" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">MMULT(H8:L8,TRANSPOSE(H$19:L$19))</f>
+        <v>59.061525371184644</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7051,15 +7053,16 @@
         <f ca="1">_xlfn.FORECAST.LINEAR(G9,OFFSET(L$26:L$27,MATCH(G9,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G9,G$26:G$27,1)-1,0,2))</f>
         <v>82.670744138634049</v>
       </c>
-      <c r="M9" s="28">
-        <v>60.11461062517499</v>
+      <c r="M9" s="28" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">MMULT(H9:L9,TRANSPOSE(H$19:L$19))</f>
+        <v>67.899497655980042</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.2" thickBot="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7101,15 +7104,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>97.961264016309883</v>
       </c>
-      <c r="M10" s="28">
-        <v>4.6291947824587503</v>
+      <c r="M10" s="28" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">MMULT(H10:L10,TRANSPOSE(H$19:L$19))</f>
+        <v>36.841258738511456</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1">
+    <row r="11" spans="1:14" s="14" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -7129,12 +7133,12 @@
         <v>-2.8421709430404007E-14</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G11,OFFSET(L$26:L$27,MATCH(G11,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G11,G$26:G$27,1)-1,0,2))</f>
         <v>77.471967380224271</v>
       </c>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="16"/>
@@ -7154,11 +7158,11 @@
         <v>11.111111111111086</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G12,OFFSET(L$26:L$27,MATCH(G12,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G12,G$26:G$27,1)-1,0,2))</f>
         <v>67.278287461773701</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="16"/>
@@ -7178,11 +7182,11 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G13,OFFSET(L$26:L$27,MATCH(G13,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G13,G$26:G$27,1)-1,0,2))</f>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16"/>
@@ -7202,11 +7206,11 @@
       </c>
       <c r="K14" s="17"/>
       <c r="L14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G14,OFFSET(L$26:L$27,MATCH(G14,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G14,G$26:G$27,1)-1,0,2))</f>
         <v>82.568807339449535</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16"/>
@@ -7226,11 +7230,11 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G15,OFFSET(L$26:L$27,MATCH(G15,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G15,G$26:G$27,1)-1,0,2))</f>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="16"/>
@@ -7250,7 +7254,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G16,OFFSET(L$26:L$27,MATCH(G16,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G16,G$26:G$27,1)-1,0,2))</f>
         <v>82.568807339449535</v>
       </c>
     </row>
@@ -7274,11 +7278,11 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G17,OFFSET(L$26:L$27,MATCH(G17,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G17,G$26:G$27,1)-1,0,2))</f>
         <v>92.762487257900105</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1">
+    <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -7298,7 +7302,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">_xlfn.FORECAST.LINEAR(G18,OFFSET(L$26:L$27,MATCH(G18,G$26:G$27,1)-1,0,2),OFFSET(G$26:G$27,MATCH(G18,G$26:G$27,1)-1,0,2))</f>
         <v>72.375127420998979</v>
       </c>
     </row>
@@ -7309,56 +7313,56 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="59" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="14">
         <f ca="1">H20/SUM($H20:$L20)</f>
-        <v>0.17907910183592804</v>
+        <v>0.11727282743438314</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" ref="I19:L19" ca="1" si="6">I20/SUM($H20:$L20)</f>
-        <v>6.7154663188473074E-2</v>
+        <f t="shared" ref="I19:K19" ca="1" si="6">I20/SUM($H20:$L20)</f>
+        <v>4.3977310287893707E-2</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77552434584866403</v>
+        <v>0.50786457967161114</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24175678747850296</v>
+        <v>0.1583183170364173</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.26351489835156805</v>
+        <f ca="1">L20/SUM($H20:$L20)</f>
+        <v>0.17256696556969475</v>
       </c>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="G20" s="59" t="s">
-        <v>39</v>
+      <c r="G20" s="58" t="s">
+        <v>41</v>
       </c>
       <c r="H20">
-        <f ca="1">(L17-L18)/(H17-H18)</f>
-        <v>-0.67957866123003752</v>
+        <f ca="1">(L17-L18)/(H18-H17)</f>
+        <v>0.67957866123003752</v>
       </c>
       <c r="I20">
-        <f ca="1">(L15-L16)/(I15-I16)</f>
-        <v>-0.25484199796126428</v>
+        <f ca="1">(L15-L16)/(I16-I15)</f>
+        <v>0.25484199796126428</v>
       </c>
       <c r="J20">
-        <f ca="1">(J13-J14)/(L13-L14)</f>
-        <v>-2.9429999999999974</v>
+        <f ca="1">(J13-J14)/(L14-L13)</f>
+        <v>2.9429999999999974</v>
       </c>
       <c r="K20">
-        <f ca="1">(L11-L12)/(K11-K12)</f>
-        <v>-0.91743119266055106</v>
+        <f ca="1">(L11-L12)/(K12-K11)</f>
+        <v>0.91743119266055106</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="20" customFormat="1" ht="16.2" thickBot="1">
+    <row r="21" spans="1:15" s="20" customFormat="1" ht="17" thickBot="1">
       <c r="G21" s="21"/>
       <c r="M21" s="40"/>
     </row>
@@ -7484,7 +7488,7 @@
         <v>9</v>
       </c>
       <c r="O26">
-        <f>(N25-1)*100/$N$26</f>
+        <f t="shared" ref="O26:O35" si="7">(N25-1)*100/$N$26</f>
         <v>100</v>
       </c>
     </row>
@@ -7523,7 +7527,7 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <f>(N26-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -7562,7 +7566,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <f>(N27-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>77.777777777777771</v>
       </c>
     </row>
@@ -7595,7 +7599,7 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <f>(N28-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -7628,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <f>(N29-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>55.555555555555557</v>
       </c>
     </row>
@@ -7661,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="O31">
-        <f>(N30-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>44.444444444444443</v>
       </c>
     </row>
@@ -7676,7 +7680,7 @@
         <v>3</v>
       </c>
       <c r="O32">
-        <f>(N31-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -7691,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="O33">
-        <f>(N32-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>22.222222222222221</v>
       </c>
     </row>
@@ -7706,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f>(N33-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111111</v>
       </c>
     </row>
@@ -7721,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f>(N34-1)*100/$N$26</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7733,7 +7737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" ht="18">
       <c r="C37" s="47" t="s">
         <v>15</v>
       </c>
@@ -7746,7 +7750,7 @@
       <c r="J37" s="48"/>
       <c r="K37" s="49"/>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" ht="18">
       <c r="C38" s="46">
         <v>550</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" ht="18">
       <c r="C39" s="45">
         <v>550</v>
       </c>
@@ -7799,10 +7803,10 @@
       <c r="K39" s="45">
         <v>2.1</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-    </row>
-    <row r="40" spans="3:15">
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+    </row>
+    <row r="40" spans="3:15" ht="18">
       <c r="C40" s="45">
         <v>550</v>
       </c>
@@ -7828,10 +7832,10 @@
       <c r="K40" s="45">
         <v>2</v>
       </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-    </row>
-    <row r="41" spans="3:15">
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+    </row>
+    <row r="41" spans="3:15" ht="18">
       <c r="C41" s="45">
         <v>550</v>
       </c>
@@ -7857,10 +7861,10 @@
       <c r="K41" s="45">
         <v>1.8</v>
       </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-    </row>
-    <row r="42" spans="3:15">
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+    </row>
+    <row r="42" spans="3:15" ht="18">
       <c r="C42" s="45">
         <v>550</v>
       </c>
@@ -7886,10 +7890,10 @@
       <c r="K42" s="45">
         <v>1.7</v>
       </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-    </row>
-    <row r="43" spans="3:15">
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+    </row>
+    <row r="43" spans="3:15" ht="18">
       <c r="C43" s="45">
         <v>550</v>
       </c>
@@ -7915,10 +7919,10 @@
       <c r="K43" s="45">
         <v>1.6</v>
       </c>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-    </row>
-    <row r="44" spans="3:15">
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+    </row>
+    <row r="44" spans="3:15" ht="18">
       <c r="C44" s="50">
         <v>550</v>
       </c>
@@ -7944,10 +7948,10 @@
       <c r="K44" s="50">
         <v>1.5</v>
       </c>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-    </row>
-    <row r="45" spans="3:15">
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+    </row>
+    <row r="45" spans="3:15" ht="18">
       <c r="C45" s="54"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -7957,10 +7961,10 @@
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="56"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-    </row>
-    <row r="46" spans="3:15">
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+    </row>
+    <row r="46" spans="3:15" ht="18">
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
@@ -7970,10 +7974,10 @@
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
       <c r="K46" s="53"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-    </row>
-    <row r="47" spans="3:15">
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+    </row>
+    <row r="47" spans="3:15" ht="18">
       <c r="C47" s="51" t="s">
         <v>16</v>
       </c>
@@ -7985,10 +7989,10 @@
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
       <c r="K47" s="53"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-    </row>
-    <row r="48" spans="3:15">
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+    </row>
+    <row r="48" spans="3:15" ht="18">
       <c r="C48" s="46">
         <v>1</v>
       </c>
@@ -8014,10 +8018,10 @@
         <v>300</v>
       </c>
       <c r="K48" s="46"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-    </row>
-    <row r="49" spans="3:15">
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+    </row>
+    <row r="49" spans="3:15" ht="18">
       <c r="C49" s="45">
         <v>2</v>
       </c>
@@ -8043,10 +8047,10 @@
         <v>450</v>
       </c>
       <c r="K49" s="45"/>
-      <c r="N49" s="58"/>
+      <c r="N49" s="57"/>
       <c r="O49" s="57"/>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" ht="18">
       <c r="C50" s="45">
         <v>3</v>
       </c>
@@ -8072,9 +8076,9 @@
         <v>600</v>
       </c>
       <c r="K50" s="45"/>
-      <c r="N50" s="58"/>
-    </row>
-    <row r="51" spans="3:15">
+      <c r="N50" s="57"/>
+    </row>
+    <row r="51" spans="3:15" ht="18">
       <c r="C51" s="50">
         <v>4</v>
       </c>
@@ -8100,9 +8104,9 @@
         <v>1000</v>
       </c>
       <c r="K51" s="50"/>
-      <c r="N51" s="58"/>
-    </row>
-    <row r="52" spans="3:15">
+      <c r="N51" s="57"/>
+    </row>
+    <row r="52" spans="3:15" ht="18">
       <c r="C52" s="54"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -8112,9 +8116,9 @@
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
       <c r="K52" s="56"/>
-      <c r="N52" s="58"/>
-    </row>
-    <row r="53" spans="3:15">
+      <c r="N52" s="57"/>
+    </row>
+    <row r="53" spans="3:15" ht="18">
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
       <c r="E53" s="52"/>
@@ -8124,9 +8128,9 @@
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
       <c r="K53" s="53"/>
-      <c r="N53" s="58"/>
-    </row>
-    <row r="54" spans="3:15">
+      <c r="N53" s="57"/>
+    </row>
+    <row r="54" spans="3:15" ht="18">
       <c r="C54" s="51" t="s">
         <v>17</v>
       </c>
@@ -8138,9 +8142,9 @@
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="53"/>
-      <c r="N54" s="58"/>
-    </row>
-    <row r="55" spans="3:15">
+      <c r="N54" s="57"/>
+    </row>
+    <row r="55" spans="3:15" ht="18">
       <c r="C55" s="46">
         <v>1</v>
       </c>
@@ -8166,9 +8170,9 @@
         <v>300</v>
       </c>
       <c r="K55" s="46"/>
-      <c r="N55" s="58"/>
-    </row>
-    <row r="56" spans="3:15">
+      <c r="N55" s="57"/>
+    </row>
+    <row r="56" spans="3:15" ht="18">
       <c r="C56" s="45">
         <v>2</v>
       </c>
@@ -8194,9 +8198,9 @@
         <v>400</v>
       </c>
       <c r="K56" s="45"/>
-      <c r="N56" s="58"/>
-    </row>
-    <row r="57" spans="3:15">
+      <c r="N56" s="57"/>
+    </row>
+    <row r="57" spans="3:15" ht="18">
       <c r="C57" s="45">
         <v>3</v>
       </c>
@@ -8223,7 +8227,7 @@
       </c>
       <c r="K57" s="45"/>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" ht="18">
       <c r="C58" s="50">
         <v>4</v>
       </c>
@@ -8250,7 +8254,7 @@
       </c>
       <c r="K58" s="50"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" ht="18">
       <c r="C59" s="54"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
@@ -8261,7 +8265,7 @@
       <c r="J59" s="55"/>
       <c r="K59" s="56"/>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:15" ht="18">
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
       <c r="E60" s="52"/>
@@ -8272,7 +8276,7 @@
       <c r="J60" s="52"/>
       <c r="K60" s="53"/>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" ht="18">
       <c r="C61" s="51" t="s">
         <v>24</v>
       </c>
@@ -8285,7 +8289,7 @@
       <c r="J61" s="52"/>
       <c r="K61" s="53"/>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" ht="18">
       <c r="C62" s="46">
         <v>1</v>
       </c>
@@ -8312,7 +8316,7 @@
       </c>
       <c r="K62" s="46"/>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" ht="18">
       <c r="C63" s="45">
         <v>2</v>
       </c>
@@ -8339,7 +8343,7 @@
       </c>
       <c r="K63" s="45"/>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:15" ht="18">
       <c r="C64" s="45">
         <v>3</v>
       </c>
@@ -8366,7 +8370,7 @@
       </c>
       <c r="K64" s="45"/>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" ht="18">
       <c r="C65" s="45">
         <v>4</v>
       </c>
@@ -8432,9 +8436,9 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="39.296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -9044,7 +9048,7 @@
     <row r="13" spans="1:22">
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:22" ht="16.2" thickBot="1">
+    <row r="14" spans="1:22" ht="17" thickBot="1">
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:22" s="14" customFormat="1">
@@ -9514,13 +9518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1BF91-8CAF-244E-B6BF-FE8B646402AF}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="10.796875" style="28"/>
+    <col min="13" max="13" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -10267,7 +10271,7 @@
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
     </row>
-    <row r="14" spans="1:28" ht="16.2" thickBot="1">
+    <row r="14" spans="1:28" ht="17" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -10415,7 +10419,7 @@
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
     </row>
-    <row r="18" spans="1:28" ht="16.2" thickBot="1">
+    <row r="18" spans="1:28" ht="17" thickBot="1">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -11659,18 +11663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4473C636-8F8B-734A-9EFB-C73EEF4CFCCF}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="M5" zoomScale="144" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="13" max="13" width="39.296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.796875" customWidth="1"/>
-    <col min="24" max="24" width="10.796875" style="28"/>
+    <col min="23" max="23" width="2.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -12339,7 +12343,7 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:24" ht="16.2" thickBot="1">
+    <row r="14" spans="1:24" ht="17" thickBot="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -12363,7 +12367,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
     </row>
-    <row r="15" spans="1:24" s="19" customFormat="1" ht="16.2" thickBot="1">
+    <row r="15" spans="1:24" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
         <v>26</v>
@@ -13085,7 +13089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="16.2" thickBot="1"/>
+    <row r="28" spans="2:28" ht="17" thickBot="1"/>
     <row r="29" spans="2:28" s="14" customFormat="1">
       <c r="M29" s="29" t="s">
         <v>33</v>
